--- a/data/hotels_by_city/Denver/Denver_shard_75.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d225473-Reviews-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Aurora-North.h201002.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,946 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r582105275-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>225473</t>
+  </si>
+  <si>
+    <t>582105275</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>poor customer service, attendant was rude and states she does not care.</t>
+  </si>
+  <si>
+    <t>room was not cleaned.  customer service was rude and states don't care and slammed door in face.  states she will not get manger.  Also states that if I don't like it leave and will put me out of hotel.  Had to go to another property to get information.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>room was not cleaned.  customer service was rude and states don't care and slammed door in face.  states she will not get manger.  Also states that if I don't like it leave and will put me out of hotel.  Had to go to another property to get information.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r580408728-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>580408728</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>I would say you get what you pay for but at 89$ a night the bed was hard as a rock. Didn't see any breakfast that the woman told us about.hallway floors are nasty. I wouldn't ever stay here again...good if you need a few hours sleep...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>I would say you get what you pay for but at 89$ a night the bed was hard as a rock. Didn't see any breakfast that the woman told us about.hallway floors are nasty. I wouldn't ever stay here again...good if you need a few hours sleep...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r573566698-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>573566698</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Don't stay at Extended Stay!</t>
+  </si>
+  <si>
+    <t>We booked at a different Extended Stay because it was extremely close to our destination in Aurora, but when we arrived, they had overbooked and sent us to this sister property about a mile further away. If the room had been clean it wouldn't have been too bad, but it was not! The bedding seemed clean, but the kitchen and flooring were sticky and gooey. The shower and toiled seemed to have been cleaned, but not so noticeable areas were filthy. The kitchen was not stocked, and when I asked for glasses, we were sent to the front desk and given styrofoam coffee cups. Also,the security lock on the door was hanging by a thread and not secure! Won't try extended stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>We booked at a different Extended Stay because it was extremely close to our destination in Aurora, but when we arrived, they had overbooked and sent us to this sister property about a mile further away. If the room had been clean it wouldn't have been too bad, but it was not! The bedding seemed clean, but the kitchen and flooring were sticky and gooey. The shower and toiled seemed to have been cleaned, but not so noticeable areas were filthy. The kitchen was not stocked, and when I asked for glasses, we were sent to the front desk and given styrofoam coffee cups. Also,the security lock on the door was hanging by a thread and not secure! Won't try extended stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r532509314-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>532509314</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Had to switch rooms. First room was across from the trash (which smelled strongly), next to a room that sounded like they were having a party, and the room smelled strongly of cigarette smoke. Second room was not clean (had hair, including pubic hair, and onion skins laying on the floor). Second room also smelled of cigarette smoke. The smell aggravated my asthma and allergies. I had to check out early because of these things and find other, last minute, places to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Had to switch rooms. First room was across from the trash (which smelled strongly), next to a room that sounded like they were having a party, and the room smelled strongly of cigarette smoke. Second room was not clean (had hair, including pubic hair, and onion skins laying on the floor). Second room also smelled of cigarette smoke. The smell aggravated my asthma and allergies. I had to check out early because of these things and find other, last minute, places to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r531552178-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>531552178</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended Disappointment America </t>
+  </si>
+  <si>
+    <t>Let's put aside the fact that they serve a breakfast that's not really a breakfast. Let's put aside the fact they have free internet that's not really free.  Let's put aside the fact they offer beds  that have horrible springs poking you in the back and barely qualifies as beds... 
+My fiance and I live in SoCal and had to come to Aurora, CO to see my Dad in the Intensive Care Unit ...
+When we first called Extended Stay America, we told them the situation (we needed to be close to the hospital my father was at) we were quoted a good room at a cheap price.. So we booked the room.
+Later, we received a confirmation email but for a different hotel far away from the hospital my father was staying at. So we called to make the correction and to book the hotel we originally wanted to stay at, Aurora North. 
+At this point, they quoted us an even lower rate than they had before and promised it would be at Aurora North, we even clarified three times to be sure. Then after we checked the confirmation email, we discovered it was at an even farther location from the hospital, 26 miles away! 
+So we called back again, to correct them again and try and get a room at Aurora North again.. 
+This time the price they quoted us was much more than the first quote. I...Let's put aside the fact that they serve a breakfast that's not really a breakfast. Let's put aside the fact they have free internet that's not really free.  Let's put aside the fact they offer beds  that have horrible springs poking you in the back and barely qualifies as beds... My fiance and I live in SoCal and had to come to Aurora, CO to see my Dad in the Intensive Care Unit ...When we first called Extended Stay America, we told them the situation (we needed to be close to the hospital my father was at) we were quoted a good room at a cheap price.. So we booked the room.Later, we received a confirmation email but for a different hotel far away from the hospital my father was staying at. So we called to make the correction and to book the hotel we originally wanted to stay at, Aurora North. At this point, they quoted us an even lower rate than they had before and promised it would be at Aurora North, we even clarified three times to be sure. Then after we checked the confirmation email, we discovered it was at an even farther location from the hospital, 26 miles away! So we called back again, to correct them again and try and get a room at Aurora North again.. This time the price they quoted us was much more than the first quote. I explained I had been quoted a great deal less, they said call guest relations and they can solve this problem for you.So I called guest relations told them my situation, what had happened, and they had promised to call back within 24 to 48 hours to tell me the outcome of my claim. I called them 48 hours later and I was told the claim was still open, that it had not been reviewed yet, and that I should call back. So I called back the day before I left and they still had not read my claim. They assured me, by the time I checked in they would have read my claim and gotten back to me with a discount for all the trouble I had been through.. We never heard from them. So after we fly into Denver, we come to the hotel on good faith they would discount it because of our situation. Turns out we were to pay the third more expensive price they had quoted us, but at this point it was too late and we needed to stay somewhere close to the hospital.The day before we are due to check out it turns out that my father is going to have a longer stay in the ICU and he needs my fiance and I to stay. So we call Extended Stay where we are currently at, to get a quote to stay until the end of the week. We are quoted a price and then after we arrange funds and show up a few hours later they quoted us a much higher price than they had originally said. Their excuse was their rates change all the time.. So instead of booking the next week at Extended Stay America Aurora North.. I booked my fiance and I at a different hotel that wouldn't charge me a different rate every time I called them.Thank you Extended Stay America for making my family emergency that much harder to deal with. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Let's put aside the fact that they serve a breakfast that's not really a breakfast. Let's put aside the fact they have free internet that's not really free.  Let's put aside the fact they offer beds  that have horrible springs poking you in the back and barely qualifies as beds... 
+My fiance and I live in SoCal and had to come to Aurora, CO to see my Dad in the Intensive Care Unit ...
+When we first called Extended Stay America, we told them the situation (we needed to be close to the hospital my father was at) we were quoted a good room at a cheap price.. So we booked the room.
+Later, we received a confirmation email but for a different hotel far away from the hospital my father was staying at. So we called to make the correction and to book the hotel we originally wanted to stay at, Aurora North. 
+At this point, they quoted us an even lower rate than they had before and promised it would be at Aurora North, we even clarified three times to be sure. Then after we checked the confirmation email, we discovered it was at an even farther location from the hospital, 26 miles away! 
+So we called back again, to correct them again and try and get a room at Aurora North again.. 
+This time the price they quoted us was much more than the first quote. I...Let's put aside the fact that they serve a breakfast that's not really a breakfast. Let's put aside the fact they have free internet that's not really free.  Let's put aside the fact they offer beds  that have horrible springs poking you in the back and barely qualifies as beds... My fiance and I live in SoCal and had to come to Aurora, CO to see my Dad in the Intensive Care Unit ...When we first called Extended Stay America, we told them the situation (we needed to be close to the hospital my father was at) we were quoted a good room at a cheap price.. So we booked the room.Later, we received a confirmation email but for a different hotel far away from the hospital my father was staying at. So we called to make the correction and to book the hotel we originally wanted to stay at, Aurora North. At this point, they quoted us an even lower rate than they had before and promised it would be at Aurora North, we even clarified three times to be sure. Then after we checked the confirmation email, we discovered it was at an even farther location from the hospital, 26 miles away! So we called back again, to correct them again and try and get a room at Aurora North again.. This time the price they quoted us was much more than the first quote. I explained I had been quoted a great deal less, they said call guest relations and they can solve this problem for you.So I called guest relations told them my situation, what had happened, and they had promised to call back within 24 to 48 hours to tell me the outcome of my claim. I called them 48 hours later and I was told the claim was still open, that it had not been reviewed yet, and that I should call back. So I called back the day before I left and they still had not read my claim. They assured me, by the time I checked in they would have read my claim and gotten back to me with a discount for all the trouble I had been through.. We never heard from them. So after we fly into Denver, we come to the hotel on good faith they would discount it because of our situation. Turns out we were to pay the third more expensive price they had quoted us, but at this point it was too late and we needed to stay somewhere close to the hospital.The day before we are due to check out it turns out that my father is going to have a longer stay in the ICU and he needs my fiance and I to stay. So we call Extended Stay where we are currently at, to get a quote to stay until the end of the week. We are quoted a price and then after we arrange funds and show up a few hours later they quoted us a much higher price than they had originally said. Their excuse was their rates change all the time.. So instead of booking the next week at Extended Stay America Aurora North.. I booked my fiance and I at a different hotel that wouldn't charge me a different rate every time I called them.Thank you Extended Stay America for making my family emergency that much harder to deal with. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r528562021-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>528562021</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>We arrived super late, service was a little slow.</t>
+  </si>
+  <si>
+    <t>Our flights were delayed and we arrived super late, had to ring the bell for service and then it took a little while.  We got out room, the hotel seemed pretty full as the parking lot had few available spots.  It's a 100% smoke free hotel, yet the hallway and our room smelled of smoke.  I realize that you can't control what people do in their rooms, but if it had not been so late I would have gone elsewhere.  Also it's farther from the airport than I thought, I would stay closer to the airport next time.  The next morning we had to wait to get anything for breakfast, they put out little granola bars and had coffee or hot chocolate, very minimal breakfast, I prefer to have a heartier breakfast when traveling.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Our flights were delayed and we arrived super late, had to ring the bell for service and then it took a little while.  We got out room, the hotel seemed pretty full as the parking lot had few available spots.  It's a 100% smoke free hotel, yet the hallway and our room smelled of smoke.  I realize that you can't control what people do in their rooms, but if it had not been so late I would have gone elsewhere.  Also it's farther from the airport than I thought, I would stay closer to the airport next time.  The next morning we had to wait to get anything for breakfast, they put out little granola bars and had coffee or hot chocolate, very minimal breakfast, I prefer to have a heartier breakfast when traveling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r508879940-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>508879940</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>great employees</t>
+  </si>
+  <si>
+    <t>The employees here have been so accommodating. I would definitely recommend this hotel to my friends and family. Everything from my room to the employees were great. I will definitely be back in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>The employees here have been so accommodating. I would definitely recommend this hotel to my friends and family. Everything from my room to the employees were great. I will definitely be back in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r506662383-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>506662383</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Disgusting!!!</t>
+  </si>
+  <si>
+    <t>Filthy! and Disgusting! I will never stay here or use another Extended Stay America. Room has stains on carpets and chairs, used condom under bed, metal sticking out from side of bed that my child got cut on, no alarm clock and NO PHONE! Security lock screws pulled out of door frame, Awful filth and smell in foyer from trash, dumpster overflowing. No utensils in kitchen, toilet seat finish coming off, huge spider found in room, foyer door propped by rock, people drinking in parking lot at night...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Filthy! and Disgusting! I will never stay here or use another Extended Stay America. Room has stains on carpets and chairs, used condom under bed, metal sticking out from side of bed that my child got cut on, no alarm clock and NO PHONE! Security lock screws pulled out of door frame, Awful filth and smell in foyer from trash, dumpster overflowing. No utensils in kitchen, toilet seat finish coming off, huge spider found in room, foyer door propped by rock, people drinking in parking lot at night...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r505809472-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>505809472</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>This Hotel is very dirty!</t>
+  </si>
+  <si>
+    <t>The first room they tried to give me was very dirty and smelled like smoke.  The 2nd room was better but still dirty.  Carpet was dirty, bed spread was dirty.  Had to ask for toilet paper on the first day.  Frig was dirty and missing a handle.  Under the bed was scary.  2 pillows and not blanket. Beer cans on elevator floor for two days.  I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The first room they tried to give me was very dirty and smelled like smoke.  The 2nd room was better but still dirty.  Carpet was dirty, bed spread was dirty.  Had to ask for toilet paper on the first day.  Frig was dirty and missing a handle.  Under the bed was scary.  2 pillows and not blanket. Beer cans on elevator floor for two days.  I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r502706696-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>502706696</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>How can a hotel be this bad and filthy and still be open?  This is by far the worst hotel I have ever stayed in.  When we pulled up to the hotel I thought it looked nice from the outside.  We were shocked when we opened the door to our room.  As soon as we opened the door the sour smell hit us.  I think someone had been smoking in the room for a while.  It smelled like they tried to cover it up with some kind of cleaner, but it didn't work.  There was one queen bed for 4 of us.  Breakfast was some small muffins, granola bars and instant oatmeal packets.  No milk for the oatmeal and no juice.  There was coffee.  I would only stay here again if I was by myself and there wasn't any other place available.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>How can a hotel be this bad and filthy and still be open?  This is by far the worst hotel I have ever stayed in.  When we pulled up to the hotel I thought it looked nice from the outside.  We were shocked when we opened the door to our room.  As soon as we opened the door the sour smell hit us.  I think someone had been smoking in the room for a while.  It smelled like they tried to cover it up with some kind of cleaner, but it didn't work.  There was one queen bed for 4 of us.  Breakfast was some small muffins, granola bars and instant oatmeal packets.  No milk for the oatmeal and no juice.  There was coffee.  I would only stay here again if I was by myself and there wasn't any other place available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r502589887-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>502589887</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Seen better</t>
+  </si>
+  <si>
+    <t>Was told no smoking on property but the lady that checked us in smelled like she just got back from smoking. The stairwells were not clean. The last cleaning was probably more than a year. I've seen better. MoreShow less</t>
+  </si>
+  <si>
+    <t>Was told no smoking on property but the lady that checked us in smelled like she just got back from smoking. The stairwells were not clean. The last cleaning was probably more than a year. I've seen better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r500975527-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>500975527</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Filthy and full of gross. Over Priced!</t>
+  </si>
+  <si>
+    <t>upon check in I wanted to change my room since we had additional traveler.  They were out of double beds and offered me a king with a hide a bed couch. For an additional 15.00  a night. There is no ice maker I was told to use the trays in the freezer and make my own. Had to go get sheet for the hide a bed, was asked if I requested the sheets.  um yes expected them If I am changing to accommodate 3 people. The grounds were disgusting and a few inches of cigarette  butts and litter everywhere. The hall were full of Pot smell, and drug addict freaking out in the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>upon check in I wanted to change my room since we had additional traveler.  They were out of double beds and offered me a king with a hide a bed couch. For an additional 15.00  a night. There is no ice maker I was told to use the trays in the freezer and make my own. Had to go get sheet for the hide a bed, was asked if I requested the sheets.  um yes expected them If I am changing to accommodate 3 people. The grounds were disgusting and a few inches of cigarette  butts and litter everywhere. The hall were full of Pot smell, and drug addict freaking out in the elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r498708121-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>498708121</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Hotel Nightmare</t>
+  </si>
+  <si>
+    <t>You won't get the room that you reserved. The faucet wasn't connected to the sink with running water, dirt and food under the beds, random pills on floor, a broken fridge, and the rudest staff ever! Could not recommend this place to my worst enemy!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>You won't get the room that you reserved. The faucet wasn't connected to the sink with running water, dirt and food under the beds, random pills on floor, a broken fridge, and the rudest staff ever! Could not recommend this place to my worst enemy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r498742001-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>498742001</t>
+  </si>
+  <si>
+    <t>Filthy and in need of repair</t>
+  </si>
+  <si>
+    <t>After taxes cost was $170/night for this dump. I stay in hotels almost every week and would never stay or recommend this place. Dirty kitchenette, Food splatter in the microwave, the bathroom faucet wasn't attached to the sink, noisy, the desk chairs were filthy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>After taxes cost was $170/night for this dump. I stay in hotels almost every week and would never stay or recommend this place. Dirty kitchenette, Food splatter in the microwave, the bathroom faucet wasn't attached to the sink, noisy, the desk chairs were filthy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r508611519-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>508611519</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Old but ok</t>
+  </si>
+  <si>
+    <t>The hotel is very run down and badly in need of being refurbished. Other than that, it's fine. The rooms are clean and the staff is wonderful. It's conveniently located right off the highway and near light rail. There are tons of restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very run down and badly in need of being refurbished. Other than that, it's fine. The rooms are clean and the staff is wonderful. It's conveniently located right off the highway and near light rail. There are tons of restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r493190003-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>493190003</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>I travel a lot and have never experience anything  like this. Management must do better. Employee needs better training no knows what to do. When you come to the front desk no one seems to have real care or  concern about issues. There are people out here that real needs jobs. If they don't want to work why apply.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>I travel a lot and have never experience anything  like this. Management must do better. Employee needs better training no knows what to do. When you come to the front desk no one seems to have real care or  concern about issues. There are people out here that real needs jobs. If they don't want to work why apply.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r491654426-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>491654426</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Getting better</t>
+  </si>
+  <si>
+    <t>The Management is working hard to improve this facility and it shows. I have stayed here multiple times and each time the stay has been a little better. It is not perfect, but for long stays, it is reasonably priced and very conveniently located.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>The Management is working hard to improve this facility and it shows. I have stayed here multiple times and each time the stay has been a little better. It is not perfect, but for long stays, it is reasonably priced and very conveniently located.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r489649296-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>489649296</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Rude staff, DIRTY room.</t>
+  </si>
+  <si>
+    <t>I have stayed in normal hotel rooms that were bigger and 3rd world hotels that were cleaner. Staff was unfriendly and unprofessional. I ask for a coffee pot for my room and they brought me a half of a coffee pot!! I'm not sure I could rate this lower. Do not waste your money!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in normal hotel rooms that were bigger and 3rd world hotels that were cleaner. Staff was unfriendly and unprofessional. I ask for a coffee pot for my room and they brought me a half of a coffee pot!! I'm not sure I could rate this lower. Do not waste your money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r475972944-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>475972944</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>worst lodging experience I have ever had</t>
+  </si>
+  <si>
+    <t>This was easily the worst hotel/lodging experience I have ever had.  From start to finish.
+To begin with, when I was checking in at the front desk the guests loitering around were in their pajamas and scratching themselves, ie *very* relaxed.  The employees at the front desk were also dressed very casually (in sweats, workout clothes) so they clearly were not saying anything to the guests about their behavior.
+When attempting to check in I was given some song and dance about how the lowest rate I found could not be honored or was questionable blah blah blah.  I explained that I was en route moving from Nashville to Denver for work and I was unable to book the room on my phone because I seldom had internet reception during travel but I showed them a screenshot of the Expedia/Travelocity rate (hence I had to call in a reservation, the phone representative said the lowest price would be honored).  I was begrudgingly given a room at that rate, and tiredly proceeded upstairs.  The night before my friend and I had had a wonderful night's sleep and overall great experience at a Days Inn near Kansas City so we were hoping for something similar.  Sadly, what was to come was the opposite.
+As we approached the room we could smell stale, steeped-in cigarette smoke pervading from beneath the door.  We entered the room and it was just ridiculously overwhelming.  It was...This was easily the worst hotel/lodging experience I have ever had.  From start to finish.To begin with, when I was checking in at the front desk the guests loitering around were in their pajamas and scratching themselves, ie *very* relaxed.  The employees at the front desk were also dressed very casually (in sweats, workout clothes) so they clearly were not saying anything to the guests about their behavior.When attempting to check in I was given some song and dance about how the lowest rate I found could not be honored or was questionable blah blah blah.  I explained that I was en route moving from Nashville to Denver for work and I was unable to book the room on my phone because I seldom had internet reception during travel but I showed them a screenshot of the Expedia/Travelocity rate (hence I had to call in a reservation, the phone representative said the lowest price would be honored).  I was begrudgingly given a room at that rate, and tiredly proceeded upstairs.  The night before my friend and I had had a wonderful night's sleep and overall great experience at a Days Inn near Kansas City so we were hoping for something similar.  Sadly, what was to come was the opposite.As we approached the room we could smell stale, steeped-in cigarette smoke pervading from beneath the door.  We entered the room and it was just ridiculously overwhelming.  It was in the carpets, the walls, the fabric.  And the window (with a screen) was already opened, ie as if someone knew the odor situation.  I am no princess but as moments passed the smell just became nauseating and unbearable.  I requested Samantha the manager to come upstairs and evaluate the room.  She herself said the smell was too strong and said she would re-room us.  I told her that we were extremely tired so a room nearby would be appreciated.  She let me check out the room across the hall, giving a very cursory glance.  The cigarette smoke smell was absent but other glaring problems were soon approaching.After she left, we noticed 1) the windows had no screens, 2) some of the lights were not working, 3) apparently it was a handicapped accessible room hence there was no bathtub (first world problem I get it but we are paying for certain services- and after being trapped in a Uhaul for 9 hrs, my friend was hoping for a bath), 4) there were no trash cans, and 5) (BIGGEST issue of all), the sofa bed mattress had a really GROSS DISGUSTING STAIN on it (please see photos).  The situation was getting from bad to worse but I was just so worn out.  I asked Samantha if I could please have some bedding so I could protect myself from the grossness that you guys have as a mattress (there was none in the room).  She gave me some but explained that inventory was low as she had just cleaned the rooms, and to maybe check back later.I went upstairs and attempted to fall asleep but was cold and distracted by the whole situation.  I called the lobby and asked if I could have an extra blanket (not knowing who I was speaking to, just making a request).  I was told to come downstairs which I did.  A different female representative was there (I hadn't met her yet), in the middle of re-billing a guest (who was standing there in his bare feet).  She didn't acknowledge me, I stood there patiently waiting.  After about 5 minutes, I saw her headed in a direction which I thought was maybe where the blankets were kept so I quickly asked her if I could get a blanket.  She said she wasn't going there and I would have to wait.  I said ok.  I waited for another 10 min and while the computer was processing the other guest's charges she instructed me to go around the corner and meet her for a blanket.  When I asked her for a second one because I was cold, she said a flat out "NO !" and that guests are supposed to get one blanket only.  I said guests are also not supposed to have gross mattresses to sleep on.  I asked her nicely for another blanket, she said no and to fill out a comment card.  I was shocked, but it gets worse.  Annoyed, she told me to go wait in the lobby.  I did.   10 min later she said, "Ok, if I give you another blanket you canNOT come down here again and ask for anything else." (she angrily waved her hands back and forth in an "X" motion).  I was so incredibly surprised at this point.  I asked her what I had done, she called me rude and aggressive.  Mind you, this is the first time I am interacting with this representative.  I hadn't asked her for anything other than a blanket.  She gave me the blanket then essentially kicked me out of the lobby :(   I needed items during the rest of the night....eg a pillow, some clean towels.  But your Extended Stay representative was the opposite of hospitable and I was not about to ask her for even the basics.Oh and of course there were sputum-bombs minefielding the hallways, carpets and floors (please see photo).  Par for the course.My issues here are 1) with the higher up management not giving the franchise management the proper staff they need to ensure a clean facility, and 2) with the overnight representative who treated me so poorly :(  I did nothing wrong but ask her for a blanket and she for some reason went from zero to hellfire in 20 seconds flat.This was my first, and last, time staying at an Extended Stay America.  At least this location, that's for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>This was easily the worst hotel/lodging experience I have ever had.  From start to finish.
+To begin with, when I was checking in at the front desk the guests loitering around were in their pajamas and scratching themselves, ie *very* relaxed.  The employees at the front desk were also dressed very casually (in sweats, workout clothes) so they clearly were not saying anything to the guests about their behavior.
+When attempting to check in I was given some song and dance about how the lowest rate I found could not be honored or was questionable blah blah blah.  I explained that I was en route moving from Nashville to Denver for work and I was unable to book the room on my phone because I seldom had internet reception during travel but I showed them a screenshot of the Expedia/Travelocity rate (hence I had to call in a reservation, the phone representative said the lowest price would be honored).  I was begrudgingly given a room at that rate, and tiredly proceeded upstairs.  The night before my friend and I had had a wonderful night's sleep and overall great experience at a Days Inn near Kansas City so we were hoping for something similar.  Sadly, what was to come was the opposite.
+As we approached the room we could smell stale, steeped-in cigarette smoke pervading from beneath the door.  We entered the room and it was just ridiculously overwhelming.  It was...This was easily the worst hotel/lodging experience I have ever had.  From start to finish.To begin with, when I was checking in at the front desk the guests loitering around were in their pajamas and scratching themselves, ie *very* relaxed.  The employees at the front desk were also dressed very casually (in sweats, workout clothes) so they clearly were not saying anything to the guests about their behavior.When attempting to check in I was given some song and dance about how the lowest rate I found could not be honored or was questionable blah blah blah.  I explained that I was en route moving from Nashville to Denver for work and I was unable to book the room on my phone because I seldom had internet reception during travel but I showed them a screenshot of the Expedia/Travelocity rate (hence I had to call in a reservation, the phone representative said the lowest price would be honored).  I was begrudgingly given a room at that rate, and tiredly proceeded upstairs.  The night before my friend and I had had a wonderful night's sleep and overall great experience at a Days Inn near Kansas City so we were hoping for something similar.  Sadly, what was to come was the opposite.As we approached the room we could smell stale, steeped-in cigarette smoke pervading from beneath the door.  We entered the room and it was just ridiculously overwhelming.  It was in the carpets, the walls, the fabric.  And the window (with a screen) was already opened, ie as if someone knew the odor situation.  I am no princess but as moments passed the smell just became nauseating and unbearable.  I requested Samantha the manager to come upstairs and evaluate the room.  She herself said the smell was too strong and said she would re-room us.  I told her that we were extremely tired so a room nearby would be appreciated.  She let me check out the room across the hall, giving a very cursory glance.  The cigarette smoke smell was absent but other glaring problems were soon approaching.After she left, we noticed 1) the windows had no screens, 2) some of the lights were not working, 3) apparently it was a handicapped accessible room hence there was no bathtub (first world problem I get it but we are paying for certain services- and after being trapped in a Uhaul for 9 hrs, my friend was hoping for a bath), 4) there were no trash cans, and 5) (BIGGEST issue of all), the sofa bed mattress had a really GROSS DISGUSTING STAIN on it (please see photos).  The situation was getting from bad to worse but I was just so worn out.  I asked Samantha if I could please have some bedding so I could protect myself from the grossness that you guys have as a mattress (there was none in the room).  She gave me some but explained that inventory was low as she had just cleaned the rooms, and to maybe check back later.I went upstairs and attempted to fall asleep but was cold and distracted by the whole situation.  I called the lobby and asked if I could have an extra blanket (not knowing who I was speaking to, just making a request).  I was told to come downstairs which I did.  A different female representative was there (I hadn't met her yet), in the middle of re-billing a guest (who was standing there in his bare feet).  She didn't acknowledge me, I stood there patiently waiting.  After about 5 minutes, I saw her headed in a direction which I thought was maybe where the blankets were kept so I quickly asked her if I could get a blanket.  She said she wasn't going there and I would have to wait.  I said ok.  I waited for another 10 min and while the computer was processing the other guest's charges she instructed me to go around the corner and meet her for a blanket.  When I asked her for a second one because I was cold, she said a flat out "NO !" and that guests are supposed to get one blanket only.  I said guests are also not supposed to have gross mattresses to sleep on.  I asked her nicely for another blanket, she said no and to fill out a comment card.  I was shocked, but it gets worse.  Annoyed, she told me to go wait in the lobby.  I did.   10 min later she said, "Ok, if I give you another blanket you canNOT come down here again and ask for anything else." (she angrily waved her hands back and forth in an "X" motion).  I was so incredibly surprised at this point.  I asked her what I had done, she called me rude and aggressive.  Mind you, this is the first time I am interacting with this representative.  I hadn't asked her for anything other than a blanket.  She gave me the blanket then essentially kicked me out of the lobby :(   I needed items during the rest of the night....eg a pillow, some clean towels.  But your Extended Stay representative was the opposite of hospitable and I was not about to ask her for even the basics.Oh and of course there were sputum-bombs minefielding the hallways, carpets and floors (please see photo).  Par for the course.My issues here are 1) with the higher up management not giving the franchise management the proper staff they need to ensure a clean facility, and 2) with the overnight representative who treated me so poorly :(  I did nothing wrong but ask her for a blanket and she for some reason went from zero to hellfire in 20 seconds flat.This was my first, and last, time staying at an Extended Stay America.  At least this location, that's for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r451220736-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451220736</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay - Aurora, CO</t>
+  </si>
+  <si>
+    <t>Cleanliness of room poor. Carpet was filthy.  No ice in hotel.  Refrigerator freezer did not have ice trays.  Food left in refrigerator from prior guest.  No cups. Killed a roach in the kitchen.  Renovation is taking place in the halls.  Very noisy.  Pets are allowed and were noisy during out stay.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r431552121-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>431552121</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Pet friendly, good prices.</t>
+  </si>
+  <si>
+    <t>I have been staying ata the Extended Stay America for a few months and over all it was a very pleasent stay. I had a few issues of items missing from my room but over all I am satisfied with my stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>I have been staying ata the Extended Stay America for a few months and over all it was a very pleasent stay. I had a few issues of items missing from my room but over all I am satisfied with my stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r418669686-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>418669686</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY IS IT'S NEW NAME NOT DENVER  AURORA NORTH</t>
+  </si>
+  <si>
+    <t>I arrived at the Extended Stay Hotel America in Denver - North Aurora between 12 am and 1 am from 8 hours of traveling. For starters, there were two police at the at the front desk getting ready to kick someone room door in. To get them out of their room, that must likely was high burning something and about to set the hotel on fire. So, I had to wait for the front people to help the police before I could get a room. I finally get a key to go to a room, take it signs are all over the front desk saying this is a non - smoking hotel. I open the door to my room I got push back by the smell of cigarette smoke. For an asthmatic person this was bad. So, I finally get another room after another 30 minutes of waiting. I get to the next room, it smelled horrible like a construction crew / greasy mechanic shop in this room. I found chips bag between the bed and dresser. There were no pots, cups, coffee pot, plates, utensils, and they did not even ask if needed any of these things.  There was long hair on the clean towels in the room and all over the bed sheets. They did not even call to my room to see if everything was okay. The hospitality at this hotel is just not at this hotel....I arrived at the Extended Stay Hotel America in Denver - North Aurora between 12 am and 1 am from 8 hours of traveling. For starters, there were two police at the at the front desk getting ready to kick someone room door in. To get them out of their room, that must likely was high burning something and about to set the hotel on fire. So, I had to wait for the front people to help the police before I could get a room. I finally get a key to go to a room, take it signs are all over the front desk saying this is a non - smoking hotel. I open the door to my room I got push back by the smell of cigarette smoke. For an asthmatic person this was bad. So, I finally get another room after another 30 minutes of waiting. I get to the next room, it smelled horrible like a construction crew / greasy mechanic shop in this room. I found chips bag between the bed and dresser. There were no pots, cups, coffee pot, plates, utensils, and they did not even ask if needed any of these things.  There was long hair on the clean towels in the room and all over the bed sheets. They did not even call to my room to see if everything was okay. The hospitality at this hotel is just not at this hotel. I have stayed many Extended Stays around the U.S.A. this is the worst one of them all.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at the Extended Stay Hotel America in Denver - North Aurora between 12 am and 1 am from 8 hours of traveling. For starters, there were two police at the at the front desk getting ready to kick someone room door in. To get them out of their room, that must likely was high burning something and about to set the hotel on fire. So, I had to wait for the front people to help the police before I could get a room. I finally get a key to go to a room, take it signs are all over the front desk saying this is a non - smoking hotel. I open the door to my room I got push back by the smell of cigarette smoke. For an asthmatic person this was bad. So, I finally get another room after another 30 minutes of waiting. I get to the next room, it smelled horrible like a construction crew / greasy mechanic shop in this room. I found chips bag between the bed and dresser. There were no pots, cups, coffee pot, plates, utensils, and they did not even ask if needed any of these things.  There was long hair on the clean towels in the room and all over the bed sheets. They did not even call to my room to see if everything was okay. The hospitality at this hotel is just not at this hotel....I arrived at the Extended Stay Hotel America in Denver - North Aurora between 12 am and 1 am from 8 hours of traveling. For starters, there were two police at the at the front desk getting ready to kick someone room door in. To get them out of their room, that must likely was high burning something and about to set the hotel on fire. So, I had to wait for the front people to help the police before I could get a room. I finally get a key to go to a room, take it signs are all over the front desk saying this is a non - smoking hotel. I open the door to my room I got push back by the smell of cigarette smoke. For an asthmatic person this was bad. So, I finally get another room after another 30 minutes of waiting. I get to the next room, it smelled horrible like a construction crew / greasy mechanic shop in this room. I found chips bag between the bed and dresser. There were no pots, cups, coffee pot, plates, utensils, and they did not even ask if needed any of these things.  There was long hair on the clean towels in the room and all over the bed sheets. They did not even call to my room to see if everything was okay. The hospitality at this hotel is just not at this hotel. I have stayed many Extended Stays around the U.S.A. this is the worst one of them all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r416336856-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>416336856</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Skip the Stay!</t>
+  </si>
+  <si>
+    <t>I am here on business and decided to jump on a third party site to compare great rates as I only needed two nights throughout my five day stay here in Colorado.As i arrived no one was at the desk to assist a guest that was already standing there waiting for assistance. We waited together. He was speaking with the attendant about a problem as well. I checked into the hotel and was given the choice of the first or second floor. I happily accepted the room on the first floor. I dragged both suitcases in and a few shopping bags I had acquired on my morning in Denver. I get inside of the room and started to unpack and noticed the bathroom sink full of used water from a stopped up drain. I also noticed the recking chair offered in the room had a metal black rod poking from the side of the main seat cushion. Displeased and pressed for time for a 5 o clock appointment, I rush to the front desk and ask if I could change rooms. She agreed to move me to a new room on the 2nd floor.  So she scribbles out the old room number on my card holder to the new room. I once again drag all the luggage and accessories up to the next floor. Wasn't offered any assistance nor was I offered a maintenance  man to fix the the first...I am here on business and decided to jump on a third party site to compare great rates as I only needed two nights throughout my five day stay here in Colorado.As i arrived no one was at the desk to assist a guest that was already standing there waiting for assistance. We waited together. He was speaking with the attendant about a problem as well. I checked into the hotel and was given the choice of the first or second floor. I happily accepted the room on the first floor. I dragged both suitcases in and a few shopping bags I had acquired on my morning in Denver. I get inside of the room and started to unpack and noticed the bathroom sink full of used water from a stopped up drain. I also noticed the recking chair offered in the room had a metal black rod poking from the side of the main seat cushion. Displeased and pressed for time for a 5 o clock appointment, I rush to the front desk and ask if I could change rooms. She agreed to move me to a new room on the 2nd floor.  So she scribbles out the old room number on my card holder to the new room. I once again drag all the luggage and accessories up to the next floor. Wasn't offered any assistance nor was I offered a maintenance  man to fix the the first room. I get into the 2nd room on the 2nd floor and i take my shoes off and my socks become soaked from the wet carpet as I walked to the restroom area I almost slipped from the wet soaks and carpet. The TV inside the room a LG flat screen had a huge "X" scorched into it. I took a picture immediately. I was pressed for time so I showered and repacked my belongings stacking everything neatly, in preparation to move again. I went back to the front desk and asked if I could again change rooms because of the floor and TV.I also mentioned being able to get some type of discount for my inconvenience of moving for the 3rd time. Then the attendant said "no, she couldn't grant me a discount due to me being able to stay in the 1st room, and she could have gotten maintenance to fix the sink for me." Why not say that when I came with the problem!?! So I left my appointment and when I returned the same attendant gave me new keys. I moved all of things yet again. I found a broken ironing board, torn closet liners, only one face tile, no iron, and a broken sink in vanity area. There is also no utensils in the room to be able to cook or drink from something other than a bottle. I am very disappointed and I want to forewarn anyone looking to enjoy on a budget. Do not waste your time nor money.The floors in the lobby need to be waxed and shined, the pool had been drained. So this hotel had 0 to offer other than you and your family won't be sleeping at a rest stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am here on business and decided to jump on a third party site to compare great rates as I only needed two nights throughout my five day stay here in Colorado.As i arrived no one was at the desk to assist a guest that was already standing there waiting for assistance. We waited together. He was speaking with the attendant about a problem as well. I checked into the hotel and was given the choice of the first or second floor. I happily accepted the room on the first floor. I dragged both suitcases in and a few shopping bags I had acquired on my morning in Denver. I get inside of the room and started to unpack and noticed the bathroom sink full of used water from a stopped up drain. I also noticed the recking chair offered in the room had a metal black rod poking from the side of the main seat cushion. Displeased and pressed for time for a 5 o clock appointment, I rush to the front desk and ask if I could change rooms. She agreed to move me to a new room on the 2nd floor.  So she scribbles out the old room number on my card holder to the new room. I once again drag all the luggage and accessories up to the next floor. Wasn't offered any assistance nor was I offered a maintenance  man to fix the the first...I am here on business and decided to jump on a third party site to compare great rates as I only needed two nights throughout my five day stay here in Colorado.As i arrived no one was at the desk to assist a guest that was already standing there waiting for assistance. We waited together. He was speaking with the attendant about a problem as well. I checked into the hotel and was given the choice of the first or second floor. I happily accepted the room on the first floor. I dragged both suitcases in and a few shopping bags I had acquired on my morning in Denver. I get inside of the room and started to unpack and noticed the bathroom sink full of used water from a stopped up drain. I also noticed the recking chair offered in the room had a metal black rod poking from the side of the main seat cushion. Displeased and pressed for time for a 5 o clock appointment, I rush to the front desk and ask if I could change rooms. She agreed to move me to a new room on the 2nd floor.  So she scribbles out the old room number on my card holder to the new room. I once again drag all the luggage and accessories up to the next floor. Wasn't offered any assistance nor was I offered a maintenance  man to fix the the first room. I get into the 2nd room on the 2nd floor and i take my shoes off and my socks become soaked from the wet carpet as I walked to the restroom area I almost slipped from the wet soaks and carpet. The TV inside the room a LG flat screen had a huge "X" scorched into it. I took a picture immediately. I was pressed for time so I showered and repacked my belongings stacking everything neatly, in preparation to move again. I went back to the front desk and asked if I could again change rooms because of the floor and TV.I also mentioned being able to get some type of discount for my inconvenience of moving for the 3rd time. Then the attendant said "no, she couldn't grant me a discount due to me being able to stay in the 1st room, and she could have gotten maintenance to fix the sink for me." Why not say that when I came with the problem!?! So I left my appointment and when I returned the same attendant gave me new keys. I moved all of things yet again. I found a broken ironing board, torn closet liners, only one face tile, no iron, and a broken sink in vanity area. There is also no utensils in the room to be able to cook or drink from something other than a bottle. I am very disappointed and I want to forewarn anyone looking to enjoy on a budget. Do not waste your time nor money.The floors in the lobby need to be waxed and shined, the pool had been drained. So this hotel had 0 to offer other than you and your family won't be sleeping at a rest stop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r415373636-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>415373636</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Benefit of the doubt</t>
+  </si>
+  <si>
+    <t>I stayed in this facility from mid-June until the end of August 2016 on a work assignment in the area. I would have rated a notch higher were it not for consistent housekeeping issues. The hotel had ten housekeeping opportunities during my stay and failed to meet my minimum expectations all ten times. Either the room was not cleaned on the day that the Hotel Manager told me that it would be, or it was not cleaned properly, as in as well as I would have cleaned it myself. The bedsheets are 100tc and not suitable for long term use especially when I often went 8 nights between changing. If I didn't think I would lose them, I would have purchased a set of sheets for the bed and had them laundered with my clothes once a week. Otherwise, I was pleased with my stay. Although inefficient, the Management and Staff was always pleasant to me and willing to apologize for their ineptitude. Noise issues were rare, and although I did see the Police at the facility on two occasions, I never felt concerned for my well being at any time during my stay. I believe that if the patrons of the facility would respect the place and Management would get the Housekeeping issues under control this would be the best of the ESA facilities that I have stayed in throughout the Country. If I return to the area for...I stayed in this facility from mid-June until the end of August 2016 on a work assignment in the area. I would have rated a notch higher were it not for consistent housekeeping issues. The hotel had ten housekeeping opportunities during my stay and failed to meet my minimum expectations all ten times. Either the room was not cleaned on the day that the Hotel Manager told me that it would be, or it was not cleaned properly, as in as well as I would have cleaned it myself. The bedsheets are 100tc and not suitable for long term use especially when I often went 8 nights between changing. If I didn't think I would lose them, I would have purchased a set of sheets for the bed and had them laundered with my clothes once a week. Otherwise, I was pleased with my stay. Although inefficient, the Management and Staff was always pleasant to me and willing to apologize for their ineptitude. Noise issues were rare, and although I did see the Police at the facility on two occasions, I never felt concerned for my well being at any time during my stay. I believe that if the patrons of the facility would respect the place and Management would get the Housekeeping issues under control this would be the best of the ESA facilities that I have stayed in throughout the Country. If I return to the area for work in the future, I will stay at this facility again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this facility from mid-June until the end of August 2016 on a work assignment in the area. I would have rated a notch higher were it not for consistent housekeeping issues. The hotel had ten housekeeping opportunities during my stay and failed to meet my minimum expectations all ten times. Either the room was not cleaned on the day that the Hotel Manager told me that it would be, or it was not cleaned properly, as in as well as I would have cleaned it myself. The bedsheets are 100tc and not suitable for long term use especially when I often went 8 nights between changing. If I didn't think I would lose them, I would have purchased a set of sheets for the bed and had them laundered with my clothes once a week. Otherwise, I was pleased with my stay. Although inefficient, the Management and Staff was always pleasant to me and willing to apologize for their ineptitude. Noise issues were rare, and although I did see the Police at the facility on two occasions, I never felt concerned for my well being at any time during my stay. I believe that if the patrons of the facility would respect the place and Management would get the Housekeeping issues under control this would be the best of the ESA facilities that I have stayed in throughout the Country. If I return to the area for...I stayed in this facility from mid-June until the end of August 2016 on a work assignment in the area. I would have rated a notch higher were it not for consistent housekeeping issues. The hotel had ten housekeeping opportunities during my stay and failed to meet my minimum expectations all ten times. Either the room was not cleaned on the day that the Hotel Manager told me that it would be, or it was not cleaned properly, as in as well as I would have cleaned it myself. The bedsheets are 100tc and not suitable for long term use especially when I often went 8 nights between changing. If I didn't think I would lose them, I would have purchased a set of sheets for the bed and had them laundered with my clothes once a week. Otherwise, I was pleased with my stay. Although inefficient, the Management and Staff was always pleasant to me and willing to apologize for their ineptitude. Noise issues were rare, and although I did see the Police at the facility on two occasions, I never felt concerned for my well being at any time during my stay. I believe that if the patrons of the facility would respect the place and Management would get the Housekeeping issues under control this would be the best of the ESA facilities that I have stayed in throughout the Country. If I return to the area for work in the future, I will stay at this facility again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r398055096-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>398055096</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I had a great stay the housekeepers where very nice n helpful..... I was able to check in early n was even able to get all my dishes into my room before i got there... The pool was closed but i was still able to bbq.... The manger was so nice i will be coming back for sure....MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>I had a great stay the housekeepers where very nice n helpful..... I was able to check in early n was even able to get all my dishes into my room before i got there... The pool was closed but i was still able to bbq.... The manger was so nice i will be coming back for sure....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r397881216-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>397881216</t>
+  </si>
+  <si>
+    <t>Desdan Sanchez</t>
+  </si>
+  <si>
+    <t>Hotel is a comfortable place with professional staff I would recommend this to all my friends aswell as some business associates. Rooms are very nice aswell very clean aswell as a very good manager who takes care of problems very wellMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is a comfortable place with professional staff I would recommend this to all my friends aswell as some business associates. Rooms are very nice aswell very clean aswell as a very good manager who takes care of problems very wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r392527952-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>392527952</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>I booked online, and paid for one king bed. I had driven five hours to Denver to pick my family up from the airport, and after all of us traveling all day, we arrived at the hotel, met by an incompetent front desk person who informed us that she, "didn't know what happened, but all of their king rooms were booked." We settled for a room with two double beds, went in the room, and it was disgusting. Trash, sunflower seeds, a hat, dust, dirt, and hair, to name a few things were all over the room. The next morning, we went down for the grab-and-go breakfast, and all that was left was coffee and oatmeal. I asked the lady at the front desk if they would restock breakfast and she said, "No, it is first come, first served." It was only 8:00 am and breakfast was supposed to last until 9. When we checked out, the manager asked how my stay was, and I told him. He didn't even apologize, and instead seemed to try and minimize the above-listed problems. Do yourself and favor, and avoid this place and these people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>I booked online, and paid for one king bed. I had driven five hours to Denver to pick my family up from the airport, and after all of us traveling all day, we arrived at the hotel, met by an incompetent front desk person who informed us that she, "didn't know what happened, but all of their king rooms were booked." We settled for a room with two double beds, went in the room, and it was disgusting. Trash, sunflower seeds, a hat, dust, dirt, and hair, to name a few things were all over the room. The next morning, we went down for the grab-and-go breakfast, and all that was left was coffee and oatmeal. I asked the lady at the front desk if they would restock breakfast and she said, "No, it is first come, first served." It was only 8:00 am and breakfast was supposed to last until 9. When we checked out, the manager asked how my stay was, and I told him. He didn't even apologize, and instead seemed to try and minimize the above-listed problems. Do yourself and favor, and avoid this place and these people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r387592416-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387592416</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Horrible hotel</t>
+  </si>
+  <si>
+    <t>Stayed in room 121.  The mopped the floor before I would check in.  I had to show a picture if to borrow a broom.  I swept us and dust pan full of dirt.  I then cleaned the door myself .Found the bathroom door would not close because two hinges were badly separated from the wall.  Had to pick up the door to close it.  There were cigarette burns on the tub, a mister ions substance, and black hair.  When we went to go to bed we found food in one bed and a very badly blood, urin stains and other substances.  I stripped the beds and went to the front desk for new bedding which I put in myself.  The next morning I reported the mattress and asked for a new one. They did not get me one.  Upon further inspection I would various food and animal hair in the air conditioners.  The microwave was dirty, inside the frig was dirty with many broken pieces. The cooktop and inside all drawers, and the phone and cabinets were filthy.  I told them they could clean while I was in the room.  No one came.  Light fixture had no globe and was a hazard.  Strange drunk or drugged Brooke roaming the halls at night.  More complaints too numerous to post. Rude staff that did not care.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stayed in room 121.  The mopped the floor before I would check in.  I had to show a picture if to borrow a broom.  I swept us and dust pan full of dirt.  I then cleaned the door myself .Found the bathroom door would not close because two hinges were badly separated from the wall.  Had to pick up the door to close it.  There were cigarette burns on the tub, a mister ions substance, and black hair.  When we went to go to bed we found food in one bed and a very badly blood, urin stains and other substances.  I stripped the beds and went to the front desk for new bedding which I put in myself.  The next morning I reported the mattress and asked for a new one. They did not get me one.  Upon further inspection I would various food and animal hair in the air conditioners.  The microwave was dirty, inside the frig was dirty with many broken pieces. The cooktop and inside all drawers, and the phone and cabinets were filthy.  I told them they could clean while I was in the room.  No one came.  Light fixture had no globe and was a hazard.  Strange drunk or drugged Brooke roaming the halls at night.  More complaints too numerous to post. Rude staff that did not care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r380687143-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>380687143</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Very Good Customer Service</t>
+  </si>
+  <si>
+    <t>Tierra at the front desk was very helpful. She went out of her way to show us different rooms and even offered to take us back to some of the rooms to make the decision. She offered us very good customer service. The customer service with all the ones at the front is good, but she stood out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Tierra at the front desk was very helpful. She went out of her way to show us different rooms and even offered to take us back to some of the rooms to make the decision. She offered us very good customer service. The customer service with all the ones at the front is good, but she stood out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r379448424-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>379448424</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Maha, and Adelina, front desk and Assistant General Manager</t>
+  </si>
+  <si>
+    <t>Maha checked me in on my quite extended stay. I found her to be quite personable and courteous. I am on Oxygen 24/7 and have to travel with an oxygen concentrator. While check-in is not until 3:00 p.m.,I had arrived early and she let me put all my luggage, food, and everything else an elderly disabled person needs to survive, on one of their luggage wagons and locked it in the conference room for me while plugging my machine in in the lobby and allowing me to rest and catch my breath. I was then escorted to my room and helped by an employee to make sure I had my trusty life giving concentrator hooked up and breathing fine. The room was quite large and set up for wheel-chair access if needed. I was pleased to see it also contained a large hide-a- bed couch which worked well when my care-giver was there and needed to spend the night, even though I was only being charged for a single room. The kitchen also held a full size side-by-side refrigerator- freezer. which made things easy if you were wheel-chair bound. The bathroom was also set up with plenty of room for same reason. All and all, this made the room seem quite large and spacious. I have been here for three months and have got to know the staff quite well. Even though I originally booked through a third party agent,...Maha checked me in on my quite extended stay. I found her to be quite personable and courteous. I am on Oxygen 24/7 and have to travel with an oxygen concentrator. While check-in is not until 3:00 p.m.,I had arrived early and she let me put all my luggage, food, and everything else an elderly disabled person needs to survive, on one of their luggage wagons and locked it in the conference room for me while plugging my machine in in the lobby and allowing me to rest and catch my breath. I was then escorted to my room and helped by an employee to make sure I had my trusty life giving concentrator hooked up and breathing fine. The room was quite large and set up for wheel-chair access if needed. I was pleased to see it also contained a large hide-a- bed couch which worked well when my care-giver was there and needed to spend the night, even though I was only being charged for a single room. The kitchen also held a full size side-by-side refrigerator- freezer. which made things easy if you were wheel-chair bound. The bathroom was also set up with plenty of room for same reason. All and all, this made the room seem quite large and spacious. I have been here for three months and have got to know the staff quite well. Even though I originally booked through a third party agent, it soon became unecessary thanks to the help of Assistant General Manager Adelina who made it possible to keep a quite reasonable rate. For a motel that large, 300-400 rooms, it could use a another full time night employee to monitor the front desk and help keep an eye on things such as late night check-ins and vacancies deemed "ready for occupancy" but other than that, it seems things are handled as well as possible. I had a wonderful "grab-and-go" breakfast this morning at the invitation to all guests from assistant G.M. Adelina, with sliced watermelon, sliced pares,fruit-juices, coffee, and a large assortment of pastries that I personally would like to see more of.  I have enjoyed my stay here and thank the staff for their help and support and would recomend this motel to my handi-capped and able-bodied friends alike.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Maha checked me in on my quite extended stay. I found her to be quite personable and courteous. I am on Oxygen 24/7 and have to travel with an oxygen concentrator. While check-in is not until 3:00 p.m.,I had arrived early and she let me put all my luggage, food, and everything else an elderly disabled person needs to survive, on one of their luggage wagons and locked it in the conference room for me while plugging my machine in in the lobby and allowing me to rest and catch my breath. I was then escorted to my room and helped by an employee to make sure I had my trusty life giving concentrator hooked up and breathing fine. The room was quite large and set up for wheel-chair access if needed. I was pleased to see it also contained a large hide-a- bed couch which worked well when my care-giver was there and needed to spend the night, even though I was only being charged for a single room. The kitchen also held a full size side-by-side refrigerator- freezer. which made things easy if you were wheel-chair bound. The bathroom was also set up with plenty of room for same reason. All and all, this made the room seem quite large and spacious. I have been here for three months and have got to know the staff quite well. Even though I originally booked through a third party agent,...Maha checked me in on my quite extended stay. I found her to be quite personable and courteous. I am on Oxygen 24/7 and have to travel with an oxygen concentrator. While check-in is not until 3:00 p.m.,I had arrived early and she let me put all my luggage, food, and everything else an elderly disabled person needs to survive, on one of their luggage wagons and locked it in the conference room for me while plugging my machine in in the lobby and allowing me to rest and catch my breath. I was then escorted to my room and helped by an employee to make sure I had my trusty life giving concentrator hooked up and breathing fine. The room was quite large and set up for wheel-chair access if needed. I was pleased to see it also contained a large hide-a- bed couch which worked well when my care-giver was there and needed to spend the night, even though I was only being charged for a single room. The kitchen also held a full size side-by-side refrigerator- freezer. which made things easy if you were wheel-chair bound. The bathroom was also set up with plenty of room for same reason. All and all, this made the room seem quite large and spacious. I have been here for three months and have got to know the staff quite well. Even though I originally booked through a third party agent, it soon became unecessary thanks to the help of Assistant General Manager Adelina who made it possible to keep a quite reasonable rate. For a motel that large, 300-400 rooms, it could use a another full time night employee to monitor the front desk and help keep an eye on things such as late night check-ins and vacancies deemed "ready for occupancy" but other than that, it seems things are handled as well as possible. I had a wonderful "grab-and-go" breakfast this morning at the invitation to all guests from assistant G.M. Adelina, with sliced watermelon, sliced pares,fruit-juices, coffee, and a large assortment of pastries that I personally would like to see more of.  I have enjoyed my stay here and thank the staff for their help and support and would recomend this motel to my handi-capped and able-bodied friends alike.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r368321208-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>368321208</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Manager at Kroger</t>
+  </si>
+  <si>
+    <t>Horrible Customer ServiceIt's issues everyday and when you tell them they act like they are going to take care of it until a day or two passes by. Had to go without television for a whole dayWhen I called the desk all he gave was apologies and it was reported to General Manager, but don't take care of itHe tried calling him and leaving messages no responseThat is Great Customer Service Right?? I've been overcharged repeatedly and made reservations online after a week of overcharging meWell that isn't any better because she acted like she couldn't pull up my reservation after I gave hermit confirmation numberThought it was resolved till later on she comes and knock and tried to come in  on me stating I needed to checkout after  I just dealt with her concerning my new reservationI would recommend this location to anyone90.00++ a night for this???It's not worth it at all, please save your headache!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible Customer ServiceIt's issues everyday and when you tell them they act like they are going to take care of it until a day or two passes by. Had to go without television for a whole dayWhen I called the desk all he gave was apologies and it was reported to General Manager, but don't take care of itHe tried calling him and leaving messages no responseThat is Great Customer Service Right?? I've been overcharged repeatedly and made reservations online after a week of overcharging meWell that isn't any better because she acted like she couldn't pull up my reservation after I gave hermit confirmation numberThought it was resolved till later on she comes and knock and tried to come in  on me stating I needed to checkout after  I just dealt with her concerning my new reservationI would recommend this location to anyone90.00++ a night for this???It's not worth it at all, please save your headache!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r363633644-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>363633644</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Do NOT STAY at this property</t>
+  </si>
+  <si>
+    <t>After only a week here, we felt our lives could be in danger at night. There is prostitution, drug dealing, and the sense of a gang infestation here. Frequent visits by Aurora PD. Management stinks!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>After only a week here, we felt our lives could be in danger at night. There is prostitution, drug dealing, and the sense of a gang infestation here. Frequent visits by Aurora PD. Management stinks!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r361667320-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>361667320</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Cierra at the front</t>
+  </si>
+  <si>
+    <t>Upon check in I was impressed by the charming young lady at the front desk her name was "Cierra" she not only greeted us with her warm welcoming smile, but when I told her we were relocating to the area she shared her first hand knowledge of the area and proceeded to offer the best price available for the most time (extended stay)  As a guest to the city of Aurora, Colorado it made me feel important as a customer and truly valued as a welcome guest. "Cierra" is in my opinion a real asset to your business, this gal deserves a raise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r317812278-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>317812278</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Just Don't!</t>
+  </si>
+  <si>
+    <t>Do not stay here. Property is dirty, staff unhelpful and unfriendly and odds are you will not get what you paid for. We did not get the room type specified and when we asked the front desk why, the desk clerk immediately went from surly to down right nasty, threatening to call the cops after I asked to see the manager.Manager is always unavailable, room was cleaned to the barest minimum. Not worth spending $50, much less the $100+ they wanted to charge. Save your money and find someplace better.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r297529130-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>297529130</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible experience </t>
+  </si>
+  <si>
+    <t>This visit started off poorly at check-in. I had a prepaid reservation from hotwire. When I got the the hotel the front desk clerk said that the room type I'd reserved was not available.  She made a big deal about it saying..."I guess since you're only here for one night I can accommodate you rather than walking you." She was rude and unfriendly.  When I got to my room it was underwhelming.  The bathroom was not clean and the grout and caulk in the shower were mildew covered. There was no shampoo (only a face bar). I went to get a drink of water. ...no glass anywhere in the room. The hotel smells funky and has a general air of neglect. When I went to checkout in the morning there wasn't even anyone manning the front desk. Overall bad experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>This visit started off poorly at check-in. I had a prepaid reservation from hotwire. When I got the the hotel the front desk clerk said that the room type I'd reserved was not available.  She made a big deal about it saying..."I guess since you're only here for one night I can accommodate you rather than walking you." She was rude and unfriendly.  When I got to my room it was underwhelming.  The bathroom was not clean and the grout and caulk in the shower were mildew covered. There was no shampoo (only a face bar). I went to get a drink of water. ...no glass anywhere in the room. The hotel smells funky and has a general air of neglect. When I went to checkout in the morning there wasn't even anyone manning the front desk. Overall bad experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r293741549-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>293741549</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Zombie Apocalypse Headquarters and Irma is head Zombie</t>
+  </si>
+  <si>
+    <t>Listen people.  Do not stay here.  Do not give them your ID or credit card.  There is no such thing as customer service.  Irma is rude and unprofessional, the shower walls are slimy, I was refused by Irma even the smallest convenience as a towel. Even after I took my used towels to her.  Housekeeping? Where? They keep your private info on file for 30 days, including your credit card info, and they take the ID of everyone adult in the room and keep it for thirty days.  Already she wants to charge me for my used towels.  I give this a zero rating.  I also urge everyone to complain to the service you used ie., mine was hotwire.  Oh and Irma was sure to look at the rate I paid and tell me I got what I paid for, and I was free to leave.  Corporate is no help either.  I have yet to speak to the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Listen people.  Do not stay here.  Do not give them your ID or credit card.  There is no such thing as customer service.  Irma is rude and unprofessional, the shower walls are slimy, I was refused by Irma even the smallest convenience as a towel. Even after I took my used towels to her.  Housekeeping? Where? They keep your private info on file for 30 days, including your credit card info, and they take the ID of everyone adult in the room and keep it for thirty days.  Already she wants to charge me for my used towels.  I give this a zero rating.  I also urge everyone to complain to the service you used ie., mine was hotwire.  Oh and Irma was sure to look at the rate I paid and tell me I got what I paid for, and I was free to leave.  Corporate is no help either.  I have yet to speak to the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r289316309-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>289316309</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Never again, horrible place and people</t>
+  </si>
+  <si>
+    <t>The cleanliness of this hotel is questionable. We found out that this was the secret hotel we had booked through hotwire's hot deal hotels. We read the review prior to our travel dates and were horrified at what they said. We thought we would give it a try and if it was that horrible we would book another hotel last minute.
+Well we arrived at the hotel and at first appearance the hotel lobby was dirty, the carpet was not vacuumed ,the floors were not swept and over flowing trash can. The checking prosess took awhile  because the front desk lady Irma answered the phone several time. The hotel also copy's the ID of every adult staying in the room. We headed up to our room, the hall outside our room had trash on the floor.   We entered the room and  were surprise because overall it appeared to be clean and  modern looking.  Overall the room was small, the kitchen area took up a lot of the room so you were left with everything  (bed, tv and chair and bathroom) else kind of cramped. There did appear to be rice on the floor and the tv stand was full of dust. The light in the bathroom was extremely dim so it was no quite possible to correctly judge the cleanliness of it but it appeared clean.
+We decided we would stay, but then I sat on the bed and notice...The cleanliness of this hotel is questionable. We found out that this was the secret hotel we had booked through hotwire's hot deal hotels. We read the review prior to our travel dates and were horrified at what they said. We thought we would give it a try and if it was that horrible we would book another hotel last minute.Well we arrived at the hotel and at first appearance the hotel lobby was dirty, the carpet was not vacuumed ,the floors were not swept and over flowing trash can. The checking prosess took awhile  because the front desk lady Irma answered the phone several time. The hotel also copy's the ID of every adult staying in the room. We headed up to our room, the hall outside our room had trash on the floor.   We entered the room and  were surprise because overall it appeared to be clean and  modern looking.  Overall the room was small, the kitchen area took up a lot of the room so you were left with everything  (bed, tv and chair and bathroom) else kind of cramped. There did appear to be rice on the floor and the tv stand was full of dust. The light in the bathroom was extremely dim so it was no quite possible to correctly judge the cleanliness of it but it appeared clean.We decided we would stay, but then I sat on the bed and notice a couple of piece of hair on the sheet, so i decided to pull back the comforter and  I find hair all over the top sheet. I flip one of the pillows over and it has hair on it like someone was laying on it. So clearly the shirts had not been changed so I go  and ask Irma the front desk lady who had checked us in and apparently the only person working that evening if we could have all new sheets because of the hair. Irma said she would follow me up and check it out. When she arrived in the room I showed her the hair and she proceeded to remove the top sheet and the one pillow. I ask politely to have all the sheet and pillow cases removed and changed. She told me that she wouldn't do that because the bottom sheet was perfectly fine and didn't have hair on it or the other pillow case. I told her that clearly none of the sheets had been changed and she said that they had and that the hair was just left over after being washed. I asked her again to just changed the sheets and my husband said that if would be easier if she would just changed all of them. This is when she said that he was threatening her and  that we had to leave the hotel  and if we didn't leave she would call the police We asked to speak to her supervisor ,she said she was management. We head down to the lobby where we asked for a refund and she said no and that the hotel was not a full service hotel and that is why she didn't have enough sheets to change ours. We argued with her and she kept threatening to call the police which I told her to go ahead and do. I asked for the hotel corporate number and she refused to give it to me and said I could find it myself. The police came and tried to get us and refund and sided with us They told us that we would have to leave and of course we were going to.  We ended up booking another hotel that was great and clean.  DO NOT STAY HERE, EVERYONE WAS HAVING PROBLEMS, WE WITNESS JUST THROUGH THE CHECK IN PROCESS, PEOPLE WITH  LOST RESERVATIONS  AND GUESTS CALLING THE FRONT DESK COMPLAINING ABOUT THE NON SMOKING HOTEL ROOMS SMELLING LIKE SMOKE AND IRMA THE FRONT DESK CLERK SAID THERE WAS NOTHING SHE COULD DO ABOUT IT. MoreShow less</t>
+  </si>
+  <si>
+    <t>The cleanliness of this hotel is questionable. We found out that this was the secret hotel we had booked through hotwire's hot deal hotels. We read the review prior to our travel dates and were horrified at what they said. We thought we would give it a try and if it was that horrible we would book another hotel last minute.
+Well we arrived at the hotel and at first appearance the hotel lobby was dirty, the carpet was not vacuumed ,the floors were not swept and over flowing trash can. The checking prosess took awhile  because the front desk lady Irma answered the phone several time. The hotel also copy's the ID of every adult staying in the room. We headed up to our room, the hall outside our room had trash on the floor.   We entered the room and  were surprise because overall it appeared to be clean and  modern looking.  Overall the room was small, the kitchen area took up a lot of the room so you were left with everything  (bed, tv and chair and bathroom) else kind of cramped. There did appear to be rice on the floor and the tv stand was full of dust. The light in the bathroom was extremely dim so it was no quite possible to correctly judge the cleanliness of it but it appeared clean.
+We decided we would stay, but then I sat on the bed and notice...The cleanliness of this hotel is questionable. We found out that this was the secret hotel we had booked through hotwire's hot deal hotels. We read the review prior to our travel dates and were horrified at what they said. We thought we would give it a try and if it was that horrible we would book another hotel last minute.Well we arrived at the hotel and at first appearance the hotel lobby was dirty, the carpet was not vacuumed ,the floors were not swept and over flowing trash can. The checking prosess took awhile  because the front desk lady Irma answered the phone several time. The hotel also copy's the ID of every adult staying in the room. We headed up to our room, the hall outside our room had trash on the floor.   We entered the room and  were surprise because overall it appeared to be clean and  modern looking.  Overall the room was small, the kitchen area took up a lot of the room so you were left with everything  (bed, tv and chair and bathroom) else kind of cramped. There did appear to be rice on the floor and the tv stand was full of dust. The light in the bathroom was extremely dim so it was no quite possible to correctly judge the cleanliness of it but it appeared clean.We decided we would stay, but then I sat on the bed and notice a couple of piece of hair on the sheet, so i decided to pull back the comforter and  I find hair all over the top sheet. I flip one of the pillows over and it has hair on it like someone was laying on it. So clearly the shirts had not been changed so I go  and ask Irma the front desk lady who had checked us in and apparently the only person working that evening if we could have all new sheets because of the hair. Irma said she would follow me up and check it out. When she arrived in the room I showed her the hair and she proceeded to remove the top sheet and the one pillow. I ask politely to have all the sheet and pillow cases removed and changed. She told me that she wouldn't do that because the bottom sheet was perfectly fine and didn't have hair on it or the other pillow case. I told her that clearly none of the sheets had been changed and she said that they had and that the hair was just left over after being washed. I asked her again to just changed the sheets and my husband said that if would be easier if she would just changed all of them. This is when she said that he was threatening her and  that we had to leave the hotel  and if we didn't leave she would call the police We asked to speak to her supervisor ,she said she was management. We head down to the lobby where we asked for a refund and she said no and that the hotel was not a full service hotel and that is why she didn't have enough sheets to change ours. We argued with her and she kept threatening to call the police which I told her to go ahead and do. I asked for the hotel corporate number and she refused to give it to me and said I could find it myself. The police came and tried to get us and refund and sided with us They told us that we would have to leave and of course we were going to.  We ended up booking another hotel that was great and clean.  DO NOT STAY HERE, EVERYONE WAS HAVING PROBLEMS, WE WITNESS JUST THROUGH THE CHECK IN PROCESS, PEOPLE WITH  LOST RESERVATIONS  AND GUESTS CALLING THE FRONT DESK COMPLAINING ABOUT THE NON SMOKING HOTEL ROOMS SMELLING LIKE SMOKE AND IRMA THE FRONT DESK CLERK SAID THERE WAS NOTHING SHE COULD DO ABOUT IT. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r285111620-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>285111620</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>What a DUMP</t>
+  </si>
+  <si>
+    <t>This hotel is a dirty mess. On one is EVER at the front desk. It's obvious that management doesn't care about the cleanliness of their hotel. I would hate to see what their homes look like. Garbage is piled up outside the lobby back door for days, as well as 100's of cigarette butts, beer bottles and old room towels. The area outside behind the lobby is a 'lounge' for beer drinking and smoking. Stay anywhere else if you have a choice, especially if you are traveling as a family with children.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r282757982-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>282757982</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Pretty decent for price and ammenities</t>
+  </si>
+  <si>
+    <t>Stayed here with my dad. The lady at the desk was pleasant. Our room smelled a bit old, perhaps the carpets or the fact that they maybe allow pets at this hotel? Otherwise, for the price we paid it was decent. Internet worked well, had a full size fridge, stove and kitchen area. The pool was clean. The only complaint I have is that when we went for the continental breakfast there were 2 muffins left and 2 packages of oatmeal left. Coffee was good and so was tea. No one mans the counter and I'm assuming what they put out, once finished, is finished. Grab and go style. Bed was comfy enough and room overall was moderately clean. My white socks were dirty from waking around the room. Oh well, overall great value for money. Lots of shops, restaurants and stores around the area and location was good. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here with my dad. The lady at the desk was pleasant. Our room smelled a bit old, perhaps the carpets or the fact that they maybe allow pets at this hotel? Otherwise, for the price we paid it was decent. Internet worked well, had a full size fridge, stove and kitchen area. The pool was clean. The only complaint I have is that when we went for the continental breakfast there were 2 muffins left and 2 packages of oatmeal left. Coffee was good and so was tea. No one mans the counter and I'm assuming what they put out, once finished, is finished. Grab and go style. Bed was comfy enough and room overall was moderately clean. My white socks were dirty from waking around the room. Oh well, overall great value for money. Lots of shops, restaurants and stores around the area and location was good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r266140163-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>266140163</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Does anyone work here?</t>
+  </si>
+  <si>
+    <t>Let's start with the fact that no one is EVER at the front desk. When I first came in, I waited probably 10 minutes before someone showed up. There is a mysterious black box on the counter where you push a button that apparently pages them, but that certainly didn't get them there quickly. Then I was told it was too early to check in. So then I come back - no one is at the front desk again of course - so then a member of housekeeping checked me in! She even stated "they better be lucky I know how to do this." Then - I get to my room, which has no shower curtain and the light is so dim in the bathroom it reminded me of something out of a horror film. So I called down and the same housekeeping lady - who is very nice by the way - brings me a shower curtain. I asked while she was there if the light could be replaced and she said the only way they get brighter is to take the cover off. I then asked if they had complimentary coffee because nothing else was in the room. She stated I was supposed to have asked at the front desk (for the whole coffee pot!). So I just asked if she could bring it up - which she did, with cream and sugar.... no cups, no spoons to...Let's start with the fact that no one is EVER at the front desk. When I first came in, I waited probably 10 minutes before someone showed up. There is a mysterious black box on the counter where you push a button that apparently pages them, but that certainly didn't get them there quickly. Then I was told it was too early to check in. So then I come back - no one is at the front desk again of course - so then a member of housekeeping checked me in! She even stated "they better be lucky I know how to do this." Then - I get to my room, which has no shower curtain and the light is so dim in the bathroom it reminded me of something out of a horror film. So I called down and the same housekeeping lady - who is very nice by the way - brings me a shower curtain. I asked while she was there if the light could be replaced and she said the only way they get brighter is to take the cover off. I then asked if they had complimentary coffee because nothing else was in the room. She stated I was supposed to have asked at the front desk (for the whole coffee pot!). So I just asked if she could bring it up - which she did, with cream and sugar.... no cups, no spoons to stir, nothing else. So I had to go back down to the front desk (where no one was again) to get cups and a dish towel. It wasn't until after I came back that I notice I had no utensils, which I then just gave and decided to use the back of my toothbrush to stir the sugar and cream in my coffee. The room itself seems fine. It has a full kitchen with a full sized refrigerator, microwave, and half stove. You'll have to stock it with everything of course. There's a nice desk to use my laptop on, a leather chair to watch tv and the bed. No hangers to hang up clothes though - so I had to call down and ask for those too. I mean -  just put the little things in the room it makes the biggest difference people!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Let's start with the fact that no one is EVER at the front desk. When I first came in, I waited probably 10 minutes before someone showed up. There is a mysterious black box on the counter where you push a button that apparently pages them, but that certainly didn't get them there quickly. Then I was told it was too early to check in. So then I come back - no one is at the front desk again of course - so then a member of housekeeping checked me in! She even stated "they better be lucky I know how to do this." Then - I get to my room, which has no shower curtain and the light is so dim in the bathroom it reminded me of something out of a horror film. So I called down and the same housekeeping lady - who is very nice by the way - brings me a shower curtain. I asked while she was there if the light could be replaced and she said the only way they get brighter is to take the cover off. I then asked if they had complimentary coffee because nothing else was in the room. She stated I was supposed to have asked at the front desk (for the whole coffee pot!). So I just asked if she could bring it up - which she did, with cream and sugar.... no cups, no spoons to...Let's start with the fact that no one is EVER at the front desk. When I first came in, I waited probably 10 minutes before someone showed up. There is a mysterious black box on the counter where you push a button that apparently pages them, but that certainly didn't get them there quickly. Then I was told it was too early to check in. So then I come back - no one is at the front desk again of course - so then a member of housekeeping checked me in! She even stated "they better be lucky I know how to do this." Then - I get to my room, which has no shower curtain and the light is so dim in the bathroom it reminded me of something out of a horror film. So I called down and the same housekeeping lady - who is very nice by the way - brings me a shower curtain. I asked while she was there if the light could be replaced and she said the only way they get brighter is to take the cover off. I then asked if they had complimentary coffee because nothing else was in the room. She stated I was supposed to have asked at the front desk (for the whole coffee pot!). So I just asked if she could bring it up - which she did, with cream and sugar.... no cups, no spoons to stir, nothing else. So I had to go back down to the front desk (where no one was again) to get cups and a dish towel. It wasn't until after I came back that I notice I had no utensils, which I then just gave and decided to use the back of my toothbrush to stir the sugar and cream in my coffee. The room itself seems fine. It has a full kitchen with a full sized refrigerator, microwave, and half stove. You'll have to stock it with everything of course. There's a nice desk to use my laptop on, a leather chair to watch tv and the bed. No hangers to hang up clothes though - so I had to call down and ask for those too. I mean -  just put the little things in the room it makes the biggest difference people!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1478,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1510,2641 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>283</v>
+      </c>
+      <c r="X31" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>310</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s">
+        <v>335</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>347</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_75.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_75.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r594696787-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>225473</t>
+  </si>
+  <si>
+    <t>594696787</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation - DON’T DO IT </t>
+  </si>
+  <si>
+    <t>I have stayed in a $6.00 room in Hamirpur India in a room that had a bed as hard as wooden planks with gray sheets with black short and curlies not to mention the cockroaches and flies and it is not an exaggeration to say it was nicer than this facility  Broken elevator, the doors to the stairwells had missing and dangling handles, food and wrappers in the stairwells, stains of things I don’t care to know about on the chairs, room with a kitchenette with no dishes, pots, pans, glasses even - nothing at all - I was told that the internet worked at the front desk but found notes posted on the doors of the rooms that the stated they were working on getting the internet fixed and should have it fixed within the week $10.00 a night would be too much MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed in a $6.00 room in Hamirpur India in a room that had a bed as hard as wooden planks with gray sheets with black short and curlies not to mention the cockroaches and flies and it is not an exaggeration to say it was nicer than this facility  Broken elevator, the doors to the stairwells had missing and dangling handles, food and wrappers in the stairwells, stains of things I don’t care to know about on the chairs, room with a kitchenette with no dishes, pots, pans, glasses even - nothing at all - I was told that the internet worked at the front desk but found notes posted on the doors of the rooms that the stated they were working on getting the internet fixed and should have it fixed within the week $10.00 a night would be too much More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r582460458-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>582460458</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Month long stay</t>
+  </si>
+  <si>
+    <t>There is nothing exceptional about this Extended Stay with the exception of Samantha in Management and Shanise in Housekeeping. The rooms are standard for an Extended Stay as are all of the amenities but the caring attitude of these two Employees has made my stay more pleasant than in either of the previous two years that I have stayed long term at this facility. Ask for Shanise' floor if you are staying for awhile. The location is very convenient to any food or shopping needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>There is nothing exceptional about this Extended Stay with the exception of Samantha in Management and Shanise in Housekeeping. The rooms are standard for an Extended Stay as are all of the amenities but the caring attitude of these two Employees has made my stay more pleasant than in either of the previous two years that I have stayed long term at this facility. Ask for Shanise' floor if you are staying for awhile. The location is very convenient to any food or shopping needs.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r582105275-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>225473</t>
-  </si>
-  <si>
     <t>582105275</t>
   </si>
   <si>
@@ -171,12 +228,6 @@
     <t>room was not cleaned.  customer service was rude and states don't care and slammed door in face.  states she will not get manger.  Also states that if I don't like it leave and will put me out of hotel.  Had to go to another property to get information.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded May 23, 2018</t>
   </si>
   <si>
@@ -243,6 +294,60 @@
     <t>We booked at a different Extended Stay because it was extremely close to our destination in Aurora, but when we arrived, they had overbooked and sent us to this sister property about a mile further away. If the room had been clean it wouldn't have been too bad, but it was not! The bedding seemed clean, but the kitchen and flooring were sticky and gooey. The shower and toiled seemed to have been cleaned, but not so noticeable areas were filthy. The kitchen was not stocked, and when I asked for glasses, we were sent to the front desk and given styrofoam coffee cups. Also,the security lock on the door was hanging by a thread and not secure! Won't try extended stay againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r545281055-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>545281055</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Worse than a spring break hotel when I was in college</t>
+  </si>
+  <si>
+    <t>The common areas were dirty, leaves from outside were in every hallway. The external security doors were always propped open. The smoke detector in the room was not attached and the bathroom faucet was not attached to the counter top. Every garbage can I saw was full, everytime.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>The common areas were dirty, leaves from outside were in every hallway. The external security doors were always propped open. The smoke detector in the room was not attached and the bathroom faucet was not attached to the counter top. Every garbage can I saw was full, everytime.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r536476433-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>536476433</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>F-</t>
+  </si>
+  <si>
+    <t>Among other horrors, the tub was black with mildew, the tub had separated from the wall at its front base, there were exposed wires hanging from the ceiling, my socks stuck to the sticky floor in front of the toilet, the bed sheets appeared to not have been changed from the previous guest, there were ugly stains on the seats of the chairs, and a plugged-in hair dryer was perched precariously on the toilet tank above the bowl because its holder was broke I left in the morning scratching my skin. I hope it was only my imagination causing the itches. I have pics but your site doesn't accept them-they're not jpeg.  Pics very upsetting; would turn your stomach.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Among other horrors, the tub was black with mildew, the tub had separated from the wall at its front base, there were exposed wires hanging from the ceiling, my socks stuck to the sticky floor in front of the toilet, the bed sheets appeared to not have been changed from the previous guest, there were ugly stains on the seats of the chairs, and a plugged-in hair dryer was perched precariously on the toilet tank above the bowl because its holder was broke I left in the morning scratching my skin. I hope it was only my imagination causing the itches. I have pics but your site doesn't accept them-they're not jpeg.  Pics very upsetting; would turn your stomach.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r532509314-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -256,12 +361,6 @@
   </si>
   <si>
     <t>Had to switch rooms. First room was across from the trash (which smelled strongly), next to a room that sounded like they were having a party, and the room smelled strongly of cigarette smoke. Second room was not clean (had hair, including pubic hair, and onion skins laying on the floor). Second room also smelled of cigarette smoke. The smell aggravated my asthma and allergies. I had to check out early because of these things and find other, last minute, places to stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded October 13, 2017</t>
@@ -336,6 +435,57 @@
     <t>Our flights were delayed and we arrived super late, had to ring the bell for service and then it took a little while.  We got out room, the hotel seemed pretty full as the parking lot had few available spots.  It's a 100% smoke free hotel, yet the hallway and our room smelled of smoke.  I realize that you can't control what people do in their rooms, but if it had not been so late I would have gone elsewhere.  Also it's farther from the airport than I thought, I would stay closer to the airport next time.  The next morning we had to wait to get anything for breakfast, they put out little granola bars and had coffee or hot chocolate, very minimal breakfast, I prefer to have a heartier breakfast when traveling.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r526131197-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>526131197</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Slow service, dirty, missing items.</t>
+  </si>
+  <si>
+    <t>It took at least 10 minutes to get someone to come to the desk on check in and check out. Upon walking into the room I immediately noticed cigarette smoke smell. The window was open and there was no screen. There was no mattress pad on the bed, no coffee pot, no dishes, no handle on the interior door to the bedroom, and no hair dryer. I was later told I had to ask for these items at the desk. That would be inconvenient considering the amount of time it took to find someone to check in. There are no ice machines available and breakfast consists of breakfast bars and coffee. There were multiple stains on the carpet and chairs and the air conditioner sounded like a buzz saw in the bedroom. This place needs complete updating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>It took at least 10 minutes to get someone to come to the desk on check in and check out. Upon walking into the room I immediately noticed cigarette smoke smell. The window was open and there was no screen. There was no mattress pad on the bed, no coffee pot, no dishes, no handle on the interior door to the bedroom, and no hair dryer. I was later told I had to ask for these items at the desk. That would be inconvenient considering the amount of time it took to find someone to check in. There are no ice machines available and breakfast consists of breakfast bars and coffee. There were multiple stains on the carpet and chairs and the air conditioner sounded like a buzz saw in the bedroom. This place needs complete updating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r511584987-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>511584987</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Just don't</t>
+  </si>
+  <si>
+    <t>I love Extended Stay America just not this location. I've never had this many problems and the letting staff know was basically telling the wall to fix the floor. If I'm ever in the same area I'll be sure to remember not to stay at Extended Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>I love Extended Stay America just not this location. I've never had this many problems and the letting staff know was basically telling the wall to fix the floor. If I'm ever in the same area I'll be sure to remember not to stay at Extended Stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r508879940-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -375,9 +525,6 @@
     <t>Filthy! and Disgusting! I will never stay here or use another Extended Stay America. Room has stains on carpets and chairs, used condom under bed, metal sticking out from side of bed that my child got cut on, no alarm clock and NO PHONE! Security lock screws pulled out of door frame, Awful filth and smell in foyer from trash, dumpster overflowing. No utensils in kitchen, toilet seat finish coming off, huge spider found in room, foyer door propped by rock, people drinking in parking lot at night...MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 29, 2017</t>
   </si>
   <si>
@@ -411,6 +558,39 @@
     <t>The first room they tried to give me was very dirty and smelled like smoke.  The 2nd room was better but still dirty.  Carpet was dirty, bed spread was dirty.  Had to ask for toilet paper on the first day.  Frig was dirty and missing a handle.  Under the bed was scary.  2 pillows and not blanket. Beer cans on elevator floor for two days.  I will never stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r505798699-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>505798699</t>
+  </si>
+  <si>
+    <t>Worst hotel stay ever!</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting, rooms are dirty, trash piled up in the stairwell, trash floating in the pool.  The front desk clerks would sit in the back office all day and not take care of the issues reported.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting, rooms are dirty, trash piled up in the stairwell, trash floating in the pool.  The front desk clerks would sit in the back office all day and not take care of the issues reported.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r505341068-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>505341068</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>The price of the hotel was ideal; however, it was filthy.  I read a lot of negative reviews prior to staying and was hoping the reviews were wrong.  They were not!!!  We also killed several spiders during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The price of the hotel was ideal; however, it was filthy.  I read a lot of negative reviews prior to staying and was hoping the reviews were wrong.  They were not!!!  We also killed several spiders during our stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r502706696-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -480,6 +660,51 @@
     <t>upon check in I wanted to change my room since we had additional traveler.  They were out of double beds and offered me a king with a hide a bed couch. For an additional 15.00  a night. There is no ice maker I was told to use the trays in the freezer and make my own. Had to go get sheet for the hide a bed, was asked if I requested the sheets.  um yes expected them If I am changing to accommodate 3 people. The grounds were disgusting and a few inches of cigarette  butts and litter everywhere. The hall were full of Pot smell, and drug addict freaking out in the elevator.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r500864007-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>500864007</t>
+  </si>
+  <si>
+    <t>Ghetto Hotel</t>
+  </si>
+  <si>
+    <t>Terrible everything.  Not clean. Horrible breakfast with barely any choices. Room was not clean and falling apart. Even messing smoke detector. Exercise room has 2 machines. Over priced crap. Had to ask for everything that should have already been in the room. Save your time and book at EMBASSY SUITES BY HILTON SOUTHEAST.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Terrible everything.  Not clean. Horrible breakfast with barely any choices. Room was not clean and falling apart. Even messing smoke detector. Exercise room has 2 machines. Over priced crap. Had to ask for everything that should have already been in the room. Save your time and book at EMBASSY SUITES BY HILTON SOUTHEAST.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r499796583-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>499796583</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>This is the first bad review I've ever written but this place is so bad I'd like to save others some grief. Quick laundry list: rude staff (or not to be found when you need them), hallways dirty and need to be vacuumed, part of my carpet is duck taped to the wall, the bathroom light/fan makes a horrible noise when turned on, smell of cigarette smoke and cooking in the hallways.I don't know how people manage who plan to cook because there are NO supplies -- not even glasses or silverware. For me, I only wanted ice and was told they do not provide an ice machine because of refrigerators in the rooms. But how am I to make ice immediately??I should mention this is located within a cluster of medical/elder care facilities and possible is catering to that community. Unfortunate for them. I was curious about Extended Stay America and wanted to try them out, but now I know. My first and last time with this chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>This is the first bad review I've ever written but this place is so bad I'd like to save others some grief. Quick laundry list: rude staff (or not to be found when you need them), hallways dirty and need to be vacuumed, part of my carpet is duck taped to the wall, the bathroom light/fan makes a horrible noise when turned on, smell of cigarette smoke and cooking in the hallways.I don't know how people manage who plan to cook because there are NO supplies -- not even glasses or silverware. For me, I only wanted ice and was told they do not provide an ice machine because of refrigerators in the rooms. But how am I to make ice immediately??I should mention this is located within a cluster of medical/elder care facilities and possible is catering to that community. Unfortunate for them. I was curious about Extended Stay America and wanted to try them out, but now I know. My first and last time with this chain.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r498708121-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -546,6 +771,51 @@
     <t>The hotel is very run down and badly in need of being refurbished. Other than that, it's fine. The rooms are clean and the staff is wonderful. It's conveniently located right off the highway and near light rail. There are tons of restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r494445813-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>494445813</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Go Anywhere else but HERE!!!</t>
+  </si>
+  <si>
+    <t>Save yourself the headache and go anywhere else but here. The beds are awful and extremely small. The pool was closed due to the health department closing it because it was filthy mind you it was over 90 degrees. The hallway smelled like cat liter, the side door remained opened not only unlocked but opened, there was always men drinking beer there and leaving their empties behind, there were banana peels in the hallway and stairwell my wife slipped on. when we got here it was after a 6 hr drive with the kids we asked for pots and pans they said an hour for them after and hr we asked again said they never got to them and were given dirty ones...  We received 20% back but that didnt even cover 1 night stay here nor the headache... Seriously stay far away from here...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Save yourself the headache and go anywhere else but here. The beds are awful and extremely small. The pool was closed due to the health department closing it because it was filthy mind you it was over 90 degrees. The hallway smelled like cat liter, the side door remained opened not only unlocked but opened, there was always men drinking beer there and leaving their empties behind, there were banana peels in the hallway and stairwell my wife slipped on. when we got here it was after a 6 hr drive with the kids we asked for pots and pans they said an hour for them after and hr we asked again said they never got to them and were given dirty ones...  We received 20% back but that didnt even cover 1 night stay here nor the headache... Seriously stay far away from here...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r494445744-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>494445744</t>
+  </si>
+  <si>
+    <t>Terrible Hotel and experience</t>
+  </si>
+  <si>
+    <t>Room not clean, no toilet paper, toilet needed roto rooter was so clogged and would not flush, sheets had not been changed, food left in refrigerator, floors dirty, no ironing board, no trash cans. recliner broken, furniture old.  People begging for money outside the lobby door and bothering you as you try to get checked in.  Hotel clerks not around, doing housekeeping work.  Overall terrible hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Room not clean, no toilet paper, toilet needed roto rooter was so clogged and would not flush, sheets had not been changed, food left in refrigerator, floors dirty, no ironing board, no trash cans. recliner broken, furniture old.  People begging for money outside the lobby door and bothering you as you try to get checked in.  Hotel clerks not around, doing housekeeping work.  Overall terrible hotelMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r493190003-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -616,6 +886,60 @@
   </si>
   <si>
     <t>I have stayed in normal hotel rooms that were bigger and 3rd world hotels that were cleaner. Staff was unfriendly and unprofessional. I ask for a coffee pot for my room and they brought me a half of a coffee pot!! I'm not sure I could rate this lower. Do not waste your money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r488824177-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>488824177</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Disgusting.</t>
+  </si>
+  <si>
+    <t>I booked this hotel with hotels.com and am grateful that they were able to offer me a refund and help me find other accommodations, rather than staying there.Everything was filthy. The entire hotel smells like cigarettes, despite claiming to be smoke-free. There was actually a used cigarette butt on the floor of my room and an unused cigarette sitting in the window sill.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel with hotels.com and am grateful that they were able to offer me a refund and help me find other accommodations, rather than staying there.Everything was filthy. The entire hotel smells like cigarettes, despite claiming to be smoke-free. There was actually a used cigarette butt on the floor of my room and an unused cigarette sitting in the window sill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r476231845-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>476231845</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Horrible housekeeping</t>
+  </si>
+  <si>
+    <t>I've tried multiple times to work with the staff to no avail. The upkeep of hallways and stairwells is abysmal. Cleaning of general areas doesn't happen very often and sometimes goes WEEKS without trash removal, vacuuming or mopping. Trash piles up in the stairwells (including BAGS of trash left by tenants) and hallways are left filthy for similar amounts of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I've tried multiple times to work with the staff to no avail. The upkeep of hallways and stairwells is abysmal. Cleaning of general areas doesn't happen very often and sometimes goes WEEKS without trash removal, vacuuming or mopping. Trash piles up in the stairwells (including BAGS of trash left by tenants) and hallways are left filthy for similar amounts of time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r475972944-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
@@ -636,9 +960,6 @@
 As we approached the room we could smell stale, steeped-in cigarette smoke pervading from beneath the door.  We entered the room and it was just ridiculously overwhelming.  It was...This was easily the worst hotel/lodging experience I have ever had.  From start to finish.To begin with, when I was checking in at the front desk the guests loitering around were in their pajamas and scratching themselves, ie *very* relaxed.  The employees at the front desk were also dressed very casually (in sweats, workout clothes) so they clearly were not saying anything to the guests about their behavior.When attempting to check in I was given some song and dance about how the lowest rate I found could not be honored or was questionable blah blah blah.  I explained that I was en route moving from Nashville to Denver for work and I was unable to book the room on my phone because I seldom had internet reception during travel but I showed them a screenshot of the Expedia/Travelocity rate (hence I had to call in a reservation, the phone representative said the lowest price would be honored).  I was begrudgingly given a room at that rate, and tiredly proceeded upstairs.  The night before my friend and I had had a wonderful night's sleep and overall great experience at a Days Inn near Kansas City so we were hoping for something similar.  Sadly, what was to come was the opposite.As we approached the room we could smell stale, steeped-in cigarette smoke pervading from beneath the door.  We entered the room and it was just ridiculously overwhelming.  It was in the carpets, the walls, the fabric.  And the window (with a screen) was already opened, ie as if someone knew the odor situation.  I am no princess but as moments passed the smell just became nauseating and unbearable.  I requested Samantha the manager to come upstairs and evaluate the room.  She herself said the smell was too strong and said she would re-room us.  I told her that we were extremely tired so a room nearby would be appreciated.  She let me check out the room across the hall, giving a very cursory glance.  The cigarette smoke smell was absent but other glaring problems were soon approaching.After she left, we noticed 1) the windows had no screens, 2) some of the lights were not working, 3) apparently it was a handicapped accessible room hence there was no bathtub (first world problem I get it but we are paying for certain services- and after being trapped in a Uhaul for 9 hrs, my friend was hoping for a bath), 4) there were no trash cans, and 5) (BIGGEST issue of all), the sofa bed mattress had a really GROSS DISGUSTING STAIN on it (please see photos).  The situation was getting from bad to worse but I was just so worn out.  I asked Samantha if I could please have some bedding so I could protect myself from the grossness that you guys have as a mattress (there was none in the room).  She gave me some but explained that inventory was low as she had just cleaned the rooms, and to maybe check back later.I went upstairs and attempted to fall asleep but was cold and distracted by the whole situation.  I called the lobby and asked if I could have an extra blanket (not knowing who I was speaking to, just making a request).  I was told to come downstairs which I did.  A different female representative was there (I hadn't met her yet), in the middle of re-billing a guest (who was standing there in his bare feet).  She didn't acknowledge me, I stood there patiently waiting.  After about 5 minutes, I saw her headed in a direction which I thought was maybe where the blankets were kept so I quickly asked her if I could get a blanket.  She said she wasn't going there and I would have to wait.  I said ok.  I waited for another 10 min and while the computer was processing the other guest's charges she instructed me to go around the corner and meet her for a blanket.  When I asked her for a second one because I was cold, she said a flat out "NO !" and that guests are supposed to get one blanket only.  I said guests are also not supposed to have gross mattresses to sleep on.  I asked her nicely for another blanket, she said no and to fill out a comment card.  I was shocked, but it gets worse.  Annoyed, she told me to go wait in the lobby.  I did.   10 min later she said, "Ok, if I give you another blanket you canNOT come down here again and ask for anything else." (she angrily waved her hands back and forth in an "X" motion).  I was so incredibly surprised at this point.  I asked her what I had done, she called me rude and aggressive.  Mind you, this is the first time I am interacting with this representative.  I hadn't asked her for anything other than a blanket.  She gave me the blanket then essentially kicked me out of the lobby :(   I needed items during the rest of the night....eg a pillow, some clean towels.  But your Extended Stay representative was the opposite of hospitable and I was not about to ask her for even the basics.Oh and of course there were sputum-bombs minefielding the hallways, carpets and floors (please see photo).  Par for the course.My issues here are 1) with the higher up management not giving the franchise management the proper staff they need to ensure a clean facility, and 2) with the overnight representative who treated me so poorly :(  I did nothing wrong but ask her for a blanket and she for some reason went from zero to hellfire in 20 seconds flat.This was my first, and last, time staying at an Extended Stay America.  At least this location, that's for sure.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded April 18, 2017</t>
   </si>
   <si>
@@ -696,6 +1017,39 @@
     <t>I have been staying ata the Extended Stay America for a few months and over all it was a very pleasent stay. I had a few issues of items missing from my room but over all I am satisfied with my stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r430382205-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>430382205</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Overall Experience</t>
+  </si>
+  <si>
+    <t>The hotel was a bit dumpy.  My room had a loose cabinet door that was actually broken and almost fell on me.  The shower had tape holding the vent in place in the ceiling.  There was a lack of dishes available (I had to purchase my own salad bowl).  The men's restroom on the main floor was out of order during my entire stay.  I was extremely dissatisfied.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r422244220-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>422244220</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Price and safety issues</t>
+  </si>
+  <si>
+    <t>Female staff not acknowledging new clients entering the property who would rather fraternize with Spanish speaking customers. Pricing was not as stated while booking directly at that location. Room I was given was for handicap. Definitely needs to have property exterminate regularly. High traffic of illegal activity on the property. Lack of proper lighting and adequate security cameras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r418669686-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -753,6 +1107,57 @@
     <t>I stayed in this facility from mid-June until the end of August 2016 on a work assignment in the area. I would have rated a notch higher were it not for consistent housekeeping issues. The hotel had ten housekeeping opportunities during my stay and failed to meet my minimum expectations all ten times. Either the room was not cleaned on the day that the Hotel Manager told me that it would be, or it was not cleaned properly, as in as well as I would have cleaned it myself. The bedsheets are 100tc and not suitable for long term use especially when I often went 8 nights between changing. If I didn't think I would lose them, I would have purchased a set of sheets for the bed and had them laundered with my clothes once a week. Otherwise, I was pleased with my stay. Although inefficient, the Management and Staff was always pleasant to me and willing to apologize for their ineptitude. Noise issues were rare, and although I did see the Police at the facility on two occasions, I never felt concerned for my well being at any time during my stay. I believe that if the patrons of the facility would respect the place and Management would get the Housekeeping issues under control this would be the best of the ESA facilities that I have stayed in throughout the Country. If I return to the area for...I stayed in this facility from mid-June until the end of August 2016 on a work assignment in the area. I would have rated a notch higher were it not for consistent housekeeping issues. The hotel had ten housekeeping opportunities during my stay and failed to meet my minimum expectations all ten times. Either the room was not cleaned on the day that the Hotel Manager told me that it would be, or it was not cleaned properly, as in as well as I would have cleaned it myself. The bedsheets are 100tc and not suitable for long term use especially when I often went 8 nights between changing. If I didn't think I would lose them, I would have purchased a set of sheets for the bed and had them laundered with my clothes once a week. Otherwise, I was pleased with my stay. Although inefficient, the Management and Staff was always pleasant to me and willing to apologize for their ineptitude. Noise issues were rare, and although I did see the Police at the facility on two occasions, I never felt concerned for my well being at any time during my stay. I believe that if the patrons of the facility would respect the place and Management would get the Housekeeping issues under control this would be the best of the ESA facilities that I have stayed in throughout the Country. If I return to the area for work in the future, I will stay at this facility again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r412491133-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>412491133</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I have so far had a good stay here and I feel very welcome staying here an I would stay here again if I had too ! Good staff an comfortable place too be !!! They have been very kind an caring too me !MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>I have so far had a good stay here and I feel very welcome staying here an I would stay here again if I had too ! Good staff an comfortable place too be !!! They have been very kind an caring too me !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r412049270-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>412049270</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE.  My family and I have only been here for one week and the police have been here twice to escort 'guests' out of the hotel.  The rooms are dirty, tvs do no work, the fire alarms was falling off the ceiling right above the bed!, the light in the bathroom was burnt, the kitchen hood missing the cover for the fan/light, the kitchen faucet spins around so you cannot get water.  The entire place is filthy from the outside parking with beer cans thrown around to the hallways, elevators, rooms.  There is no security guard of any type, usually there isn't anybody at the front counter in the lobby so anyone can walk in to the hotel.  You can smell marijuana in the hallways buy the stairwells.  The swimming pool is green - has not been cleaned/treated.  It just an awful place to stay and now they I have told them I'm moving out - they refuse to reimburse me for the over paid days (one week) even after having given them one week notice.  Do not use Expedia to book your hotels they will force you to prepay your stay and if you need to change - good luck getting your money, that is the problem I'm facing now.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE.  My family and I have only been here for one week and the police have been here twice to escort 'guests' out of the hotel.  The rooms are dirty, tvs do no work, the fire alarms was falling off the ceiling right above the bed!, the light in the bathroom was burnt, the kitchen hood missing the cover for the fan/light, the kitchen faucet spins around so you cannot get water.  The entire place is filthy from the outside parking with beer cans thrown around to the hallways, elevators, rooms.  There is no security guard of any type, usually there isn't anybody at the front counter in the lobby so anyone can walk in to the hotel.  You can smell marijuana in the hallways buy the stairwells.  The swimming pool is green - has not been cleaned/treated.  It just an awful place to stay and now they I have told them I'm moving out - they refuse to reimburse me for the over paid days (one week) even after having given them one week notice.  Do not use Expedia to book your hotels they will force you to prepay your stay and if you need to change - good luck getting your money, that is the problem I'm facing now.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r398055096-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -762,9 +1167,6 @@
     <t>07/27/2016</t>
   </si>
   <si>
-    <t>Awesome</t>
-  </si>
-  <si>
     <t>I had a great stay the housekeepers where very nice n helpful..... I was able to check in early n was even able to get all my dishes into my room before i got there... The pool was closed but i was still able to bbq.... The manger was so nice i will be coming back for sure....MoreShow less</t>
   </si>
   <si>
@@ -822,6 +1224,57 @@
     <t>I booked online, and paid for one king bed. I had driven five hours to Denver to pick my family up from the airport, and after all of us traveling all day, we arrived at the hotel, met by an incompetent front desk person who informed us that she, "didn't know what happened, but all of their king rooms were booked." We settled for a room with two double beds, went in the room, and it was disgusting. Trash, sunflower seeds, a hat, dust, dirt, and hair, to name a few things were all over the room. The next morning, we went down for the grab-and-go breakfast, and all that was left was coffee and oatmeal. I asked the lady at the front desk if they would restock breakfast and she said, "No, it is first come, first served." It was only 8:00 am and breakfast was supposed to last until 9. When we checked out, the manager asked how my stay was, and I told him. He didn't even apologize, and instead seemed to try and minimize the above-listed problems. Do yourself and favor, and avoid this place and these people.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r389227660-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>389227660</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>In a difficult availability and time, we were stranded in the area. Adelina and her staff were most accommodating and really helped us out; even with no rooms available, she found a way.. Thank you so much. We appreciated the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>In a difficult availability and time, we were stranded in the area. Adelina and her staff were most accommodating and really helped us out; even with no rooms available, she found a way.. Thank you so much. We appreciated the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r388126190-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>388126190</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Disappointed in Extended Stay America</t>
+  </si>
+  <si>
+    <t>The 1st room assigned to us either had someone already in it or did not get cleaned from prior occupant.  Adelina did give us an upgrade room.  It has been a while since I have stayed at at an ESA, so it was disappointing that apparently people steal the kitchen items, so i had to ask for coffee cups and spoons (that is not on the hotel, but crappy people).  The room was short on towels, there should have been 4 towels, wash rages, and hand towels, there was only 1 set.  There was also only 1 trash can in the unit. I expected one in the bathroom and kitchen. The bed and shower were decent which is why this is a 2 instead of a one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora North, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>The 1st room assigned to us either had someone already in it or did not get cleaned from prior occupant.  Adelina did give us an upgrade room.  It has been a while since I have stayed at at an ESA, so it was disappointing that apparently people steal the kitchen items, so i had to ask for coffee cups and spoons (that is not on the hotel, but crappy people).  The room was short on towels, there should have been 4 towels, wash rages, and hand towels, there was only 1 set.  There was also only 1 trash can in the unit. I expected one in the bathroom and kitchen. The bed and shower were decent which is why this is a 2 instead of a one.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r387592416-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -837,9 +1290,6 @@
     <t>Stayed in room 121.  The mopped the floor before I would check in.  I had to show a picture if to borrow a broom.  I swept us and dust pan full of dirt.  I then cleaned the door myself .Found the bathroom door would not close because two hinges were badly separated from the wall.  Had to pick up the door to close it.  There were cigarette burns on the tub, a mister ions substance, and black hair.  When we went to go to bed we found food in one bed and a very badly blood, urin stains and other substances.  I stripped the beds and went to the front desk for new bedding which I put in myself.  The next morning I reported the mattress and asked for a new one. They did not get me one.  Upon further inspection I would various food and animal hair in the air conditioners.  The microwave was dirty, inside the frig was dirty with many broken pieces. The cooktop and inside all drawers, and the phone and cabinets were filthy.  I told them they could clean while I was in the room.  No one came.  Light fixture had no globe and was a hazard.  Strange drunk or drugged Brooke roaming the halls at night.  More complaints too numerous to post. Rude staff that did not care.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>Stayed in room 121.  The mopped the floor before I would check in.  I had to show a picture if to borrow a broom.  I swept us and dust pan full of dirt.  I then cleaned the door myself .Found the bathroom door would not close because two hinges were badly separated from the wall.  Had to pick up the door to close it.  There were cigarette burns on the tub, a mister ions substance, and black hair.  When we went to go to bed we found food in one bed and a very badly blood, urin stains and other substances.  I stripped the beds and went to the front desk for new bedding which I put in myself.  The next morning I reported the mattress and asked for a new one. They did not get me one.  Upon further inspection I would various food and animal hair in the air conditioners.  The microwave was dirty, inside the frig was dirty with many broken pieces. The cooktop and inside all drawers, and the phone and cabinets were filthy.  I told them they could clean while I was in the room.  No one came.  Light fixture had no globe and was a hazard.  Strange drunk or drugged Brooke roaming the halls at night.  More complaints too numerous to post. Rude staff that did not care.More</t>
   </si>
   <si>
@@ -894,6 +1344,36 @@
     <t>Maha checked me in on my quite extended stay. I found her to be quite personable and courteous. I am on Oxygen 24/7 and have to travel with an oxygen concentrator. While check-in is not until 3:00 p.m.,I had arrived early and she let me put all my luggage, food, and everything else an elderly disabled person needs to survive, on one of their luggage wagons and locked it in the conference room for me while plugging my machine in in the lobby and allowing me to rest and catch my breath. I was then escorted to my room and helped by an employee to make sure I had my trusty life giving concentrator hooked up and breathing fine. The room was quite large and set up for wheel-chair access if needed. I was pleased to see it also contained a large hide-a- bed couch which worked well when my care-giver was there and needed to spend the night, even though I was only being charged for a single room. The kitchen also held a full size side-by-side refrigerator- freezer. which made things easy if you were wheel-chair bound. The bathroom was also set up with plenty of room for same reason. All and all, this made the room seem quite large and spacious. I have been here for three months and have got to know the staff quite well. Even though I originally booked through a third party agent,...Maha checked me in on my quite extended stay. I found her to be quite personable and courteous. I am on Oxygen 24/7 and have to travel with an oxygen concentrator. While check-in is not until 3:00 p.m.,I had arrived early and she let me put all my luggage, food, and everything else an elderly disabled person needs to survive, on one of their luggage wagons and locked it in the conference room for me while plugging my machine in in the lobby and allowing me to rest and catch my breath. I was then escorted to my room and helped by an employee to make sure I had my trusty life giving concentrator hooked up and breathing fine. The room was quite large and set up for wheel-chair access if needed. I was pleased to see it also contained a large hide-a- bed couch which worked well when my care-giver was there and needed to spend the night, even though I was only being charged for a single room. The kitchen also held a full size side-by-side refrigerator- freezer. which made things easy if you were wheel-chair bound. The bathroom was also set up with plenty of room for same reason. All and all, this made the room seem quite large and spacious. I have been here for three months and have got to know the staff quite well. Even though I originally booked through a third party agent, it soon became unecessary thanks to the help of Assistant General Manager Adelina who made it possible to keep a quite reasonable rate. For a motel that large, 300-400 rooms, it could use a another full time night employee to monitor the front desk and help keep an eye on things such as late night check-ins and vacancies deemed "ready for occupancy" but other than that, it seems things are handled as well as possible. I had a wonderful "grab-and-go" breakfast this morning at the invitation to all guests from assistant G.M. Adelina, with sliced watermelon, sliced pares,fruit-juices, coffee, and a large assortment of pastries that I personally would like to see more of.  I have enjoyed my stay here and thank the staff for their help and support and would recomend this motel to my handi-capped and able-bodied friends alike.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r379380624-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>379380624</t>
+  </si>
+  <si>
+    <t>Very Pleased with Extended Stay America, Denver-Aurora North</t>
+  </si>
+  <si>
+    <t>The management and front desk staff was very helpful! They were professional and welcoming. I would recommend this hotel to people traveling or looking for an extended stay location. The room were clean and they provided me with a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>The management and front desk staff was very helpful! They were professional and welcoming. I would recommend this hotel to people traveling or looking for an extended stay location. The room were clean and they provided me with a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r379375111-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>379375111</t>
+  </si>
+  <si>
+    <t>Great Place to stay when on a budget!</t>
+  </si>
+  <si>
+    <t>I was searching High and Low for hotels to stay at while I was moving across country to Denver.  Most place wanted an arm and a leg plus your neighbors to stay for one night!  They treated everyone as if they were royalty and if you needed anything theygot it pronto!  I would highly recommend staying here versus going further in town.  They are restaurants to eat at in walking distance.  10 stars from ME!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was searching High and Low for hotels to stay at while I was moving across country to Denver.  Most place wanted an arm and a leg plus your neighbors to stay for one night!  They treated everyone as if they were royalty and if you needed anything theygot it pronto!  I would highly recommend staying here versus going further in town.  They are restaurants to eat at in walking distance.  10 stars from ME!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r368321208-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -951,6 +1431,42 @@
     <t>Upon check in I was impressed by the charming young lady at the front desk her name was "Cierra" she not only greeted us with her warm welcoming smile, but when I told her we were relocating to the area she shared her first hand knowledge of the area and proceeded to offer the best price available for the most time (extended stay)  As a guest to the city of Aurora, Colorado it made me feel important as a customer and truly valued as a welcome guest. "Cierra" is in my opinion a real asset to your business, this gal deserves a raise.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r353847381-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>353847381</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>New management are corporate robots</t>
+  </si>
+  <si>
+    <t>Bad wifi (barely 200kbps on a good day)Bad TV selection (20 channels basic cable, one of them is the dish tutorial 24/7)Unpleasant staff, new manager has scared away all the guests and employeesDangerous, multiple guests were injured from falling on ice left from housekeeping dumping water outside. Another guest was assaulted, another was robbed during our stayBad area, police are constantly scanning plates in the parking lot multiple times a day. Fire alarm goes off all the timeFound a sausage outside and someone apparently ate it</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r337076036-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>337076036</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Only lasted 5 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I got into this facility around midnight.  No one was at the desk so we had to call to get service.  When we finally got to the room, we opened the door to a stench.  It smelled like drugs were used in the room.  Stains were on the floor, the stove looked broken, and the sheets looked dirty.  For safety reasons, I took my family and left, knowing $55 was lost.  I called the corporate # and the guy said he would make it right, but I haven't heard from them.  </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r317812278-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1009,6 +1525,39 @@
   </si>
   <si>
     <t>Listen people.  Do not stay here.  Do not give them your ID or credit card.  There is no such thing as customer service.  Irma is rude and unprofessional, the shower walls are slimy, I was refused by Irma even the smallest convenience as a towel. Even after I took my used towels to her.  Housekeeping? Where? They keep your private info on file for 30 days, including your credit card info, and they take the ID of everyone adult in the room and keep it for thirty days.  Already she wants to charge me for my used towels.  I give this a zero rating.  I also urge everyone to complain to the service you used ie., mine was hotwire.  Oh and Irma was sure to look at the rate I paid and tell me I got what I paid for, and I was free to leave.  Corporate is no help either.  I have yet to speak to the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r291044767-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>291044767</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Stay Away!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish I had read the reviews before staying here. Every single bad thing said about this place is true.  The manager on duty would not honor the reservation made with their central reservations department, whatever is advertised on the website as being available -isn't. No towels in room and we got attitude for asking for them. As it is, they only gave us one wash cloth and that was hard to get. The remote control was no where to be found --- I could go on and on. Just look elsewhere. You'll be happier. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r290118784-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>290118784</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>I would never " extend my stay"</t>
+  </si>
+  <si>
+    <t>My family and I have so many complaints about this hotel. #1. The service was terrible.  Our 1-bed room was too small for 4 people so we asked the woman at the front desk for some extra blankets and she told us there were no extras in the entire hotel (which was half empty!) She was yelling and crying on the phone a couple times when we saw her.#2. The hotel was disgusting.  Tge whole place smelled like either cough syrup or smoke, even though posters procaimed it " a smoke free hotel." The floors of our room were sticky and all the carpets looked as if they had never been cleaned. We saw several cigarettes on the floor and found a HALF-EMPTY MOUNTAIN DEW BOTTLE IN OUR RECLINER!#3. The phone didn't work and the tv was glitchy and had no good chanels. The Wifi was also terrible. And good thing there wasn't a fire because the smoke detector was covered with a plastic bag!  We will not be coming here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I have so many complaints about this hotel. #1. The service was terrible.  Our 1-bed room was too small for 4 people so we asked the woman at the front desk for some extra blankets and she told us there were no extras in the entire hotel (which was half empty!) She was yelling and crying on the phone a couple times when we saw her.#2. The hotel was disgusting.  Tge whole place smelled like either cough syrup or smoke, even though posters procaimed it " a smoke free hotel." The floors of our room were sticky and all the carpets looked as if they had never been cleaned. We saw several cigarettes on the floor and found a HALF-EMPTY MOUNTAIN DEW BOTTLE IN OUR RECLINER!#3. The phone didn't work and the tv was glitchy and had no good chanels. The Wifi was also terrible. And good thing there wasn't a fire because the smoke detector was covered with a plastic bag!  We will not be coming here again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r289316309-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
@@ -1064,6 +1613,45 @@
   </si>
   <si>
     <t>Stayed here with my dad. The lady at the desk was pleasant. Our room smelled a bit old, perhaps the carpets or the fact that they maybe allow pets at this hotel? Otherwise, for the price we paid it was decent. Internet worked well, had a full size fridge, stove and kitchen area. The pool was clean. The only complaint I have is that when we went for the continental breakfast there were 2 muffins left and 2 packages of oatmeal left. Coffee was good and so was tea. No one mans the counter and I'm assuming what they put out, once finished, is finished. Grab and go style. Bed was comfy enough and room overall was moderately clean. My white socks were dirty from waking around the room. Oh well, overall great value for money. Lots of shops, restaurants and stores around the area and location was good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r277417433-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>277417433</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Good if you're a druggie.</t>
+  </si>
+  <si>
+    <t>The once a week housekeeping only actually came every other week. They never changed the sheets, and the only other thing they did was take our towels and trash. We were never returned towels.The front desk staff was seldom around, even when we rang and could hear people in the office they usually took several minutes to come out. Trying to get the towels we needed back from housekeeping was like asking for their first born child. They did not have the utensils or kitchen items on hand. When they finally found a single pot for cooking, it had not been cleaned.The guests at the hotel were the worst part. This was a nonsmoking hotel, but each evening, the entire place reeked of weed. Numerous people lurked outside just trying to score some. You could hardly get to your car at night without hearing "hey can I get some bud"? When it wasn't that, it was random yelling in the halls or the parking lot at random hours of the night.I might recommend this place to people I want to get revenge upon.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>The once a week housekeeping only actually came every other week. They never changed the sheets, and the only other thing they did was take our towels and trash. We were never returned towels.The front desk staff was seldom around, even when we rang and could hear people in the office they usually took several minutes to come out. Trying to get the towels we needed back from housekeeping was like asking for their first born child. They did not have the utensils or kitchen items on hand. When they finally found a single pot for cooking, it had not been cleaned.The guests at the hotel were the worst part. This was a nonsmoking hotel, but each evening, the entire place reeked of weed. Numerous people lurked outside just trying to score some. You could hardly get to your car at night without hearing "hey can I get some bud"? When it wasn't that, it was random yelling in the halls or the parking lot at random hours of the night.I might recommend this place to people I want to get revenge upon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r274099912-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>274099912</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here if you can help it</t>
+  </si>
+  <si>
+    <t>This hotel has almost zero amenities. We ended up not being able to bring our pack and play with us and the hotel did not have one. This is standard in any other hotel I have ever stayed in. We decided to turn the couch around to make a makeshift crib and found a broken smoke detector behind it. We called down to the front desk to ask for extra sheets and the lady said if we wanted them, we'd have to come get them ourselves because she was the only one there. My husband used to worked in the hotel industry and this is not a proper way to handle a guest who asks for something. The bathroom was tiny, had no soaps, and the tub would not plug. The water pressure in the sink was literally a trickle. There were many other small annoyances but these were the biggest problems. The person who checked us in was very nice and the person who checked us out was nice but that middle one was rude. So, don't stay here. Almost any other hotel would be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has almost zero amenities. We ended up not being able to bring our pack and play with us and the hotel did not have one. This is standard in any other hotel I have ever stayed in. We decided to turn the couch around to make a makeshift crib and found a broken smoke detector behind it. We called down to the front desk to ask for extra sheets and the lady said if we wanted them, we'd have to come get them ourselves because she was the only one there. My husband used to worked in the hotel industry and this is not a proper way to handle a guest who asks for something. The bathroom was tiny, had no soaps, and the tub would not plug. The water pressure in the sink was literally a trickle. There were many other small annoyances but these were the biggest problems. The person who checked us in was very nice and the person who checked us out was nice but that middle one was rude. So, don't stay here. Almost any other hotel would be better.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225473-r266140163-Extended_Stay_America_Denver_Aurora_North-Aurora_Colorado.html</t>
@@ -1627,18 +2215,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1686,20 +2268,26 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1750,19 +2338,19 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>1</v>
@@ -1771,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1793,62 +2381,52 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1864,52 +2442,58 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
         <v>90</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1925,46 +2509,44 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>98</v>
       </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2013,23 +2595,23 @@
         <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2081,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -2106,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
         <v>116</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>117</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2128,58 +2710,52 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
         <v>124</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>125</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2195,52 +2771,58 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>127</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
-      </c>
       <c r="O11" t="s">
-        <v>132</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
         <v>133</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>134</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -2256,47 +2838,41 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>136</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>137</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>138</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>139</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>140</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>115</v>
-      </c>
       <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>1</v>
@@ -2305,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -2327,7 +2903,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2336,31 +2912,35 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
@@ -2372,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2394,7 +2974,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2403,53 +2983,47 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -2465,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2474,31 +3048,31 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>3</v>
@@ -2508,19 +3082,19 @@
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -2536,7 +3110,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2545,53 +3119,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2607,7 +3177,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2616,28 +3186,28 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -2656,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2678,7 +3248,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2687,53 +3257,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
         <v>3</v>
       </c>
-      <c r="N18" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y18" t="s">
         <v>186</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -2749,47 +3319,41 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>188</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>189</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>190</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>191</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
         <v>192</v>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -2840,16 +3404,20 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
@@ -2861,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -2883,34 +3451,34 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
         <v>205</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>206</v>
       </c>
-      <c r="J21" t="s">
-        <v>207</v>
-      </c>
-      <c r="K21" t="s">
-        <v>208</v>
-      </c>
-      <c r="L21" t="s">
-        <v>209</v>
-      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2922,13 +3490,17 @@
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
       <c r="Y21" t="s">
         <v>209</v>
       </c>
@@ -2946,58 +3518,62 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>211</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
         <v>212</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>213</v>
       </c>
-      <c r="K22" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" t="s">
-        <v>215</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
@@ -3013,34 +3589,34 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
         <v>220</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>221</v>
       </c>
-      <c r="J23" t="s">
-        <v>222</v>
-      </c>
-      <c r="K23" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" t="s">
-        <v>224</v>
-      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3055,10 +3631,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
@@ -3074,54 +3654,62 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>227</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>228</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>229</v>
       </c>
-      <c r="L24" t="s">
-        <v>230</v>
-      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -3137,7 +3725,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3146,10 +3734,10 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
         <v>235</v>
@@ -3158,7 +3746,7 @@
         <v>236</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
         <v>237</v>
@@ -3166,21 +3754,31 @@
       <c r="O25" t="s">
         <v>52</v>
       </c>
-      <c r="P25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
         <v>3</v>
       </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
       <c r="Y25" t="s">
         <v>238</v>
       </c>
@@ -3219,20 +3817,30 @@
         <v>243</v>
       </c>
       <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
         <v>5</v>
       </c>
-      <c r="N26" t="s">
-        <v>237</v>
-      </c>
-      <c r="O26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -3271,40 +3879,50 @@
         <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
         <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -3320,7 +3938,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3329,10 +3947,10 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
         <v>257</v>
@@ -3347,14 +3965,20 @@
         <v>237</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>1</v>
@@ -3409,24 +4033,38 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>267</v>
       </c>
-      <c r="O29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -3442,7 +4080,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3451,49 +4089,53 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
@@ -3509,7 +4151,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3518,35 +4160,37 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3598,24 +4242,34 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
@@ -3631,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3640,47 +4294,47 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
@@ -3696,48 +4350,58 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>300</v>
       </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
-        <v>301</v>
-      </c>
-      <c r="J34" t="s">
-        <v>302</v>
-      </c>
-      <c r="K34" t="s">
-        <v>303</v>
-      </c>
-      <c r="L34" t="s">
-        <v>304</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>282</v>
-      </c>
       <c r="O34" t="s">
-        <v>71</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>309</v>
+      </c>
+      <c r="X34" t="s">
+        <v>310</v>
+      </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
@@ -3753,7 +4417,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3762,37 +4426,37 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3800,7 +4464,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
@@ -3816,7 +4480,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3825,39 +4489,49 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X36" t="s">
+        <v>325</v>
+      </c>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
@@ -3873,7 +4547,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3882,35 +4556,35 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3918,7 +4592,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -3934,7 +4608,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3943,35 +4617,43 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="s"/>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -3987,7 +4669,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3996,39 +4678,43 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
         <v>52</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -4044,7 +4730,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4053,35 +4739,45 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>323</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
@@ -4097,7 +4793,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4106,37 +4802,35 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
         <v>52</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="n">
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4144,7 +4838,1713 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>348</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>362</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>363</v>
+      </c>
+      <c r="X42" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>371</v>
+      </c>
+      <c r="X43" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>378</v>
+      </c>
+      <c r="X44" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>385</v>
+      </c>
+      <c r="X45" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" t="s">
+        <v>390</v>
+      </c>
+      <c r="K46" t="s">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>393</v>
+      </c>
+      <c r="X46" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+      <c r="K47" t="s">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s">
+        <v>400</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>402</v>
+      </c>
+      <c r="X47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>408</v>
+      </c>
+      <c r="L48" t="s">
+        <v>409</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>410</v>
+      </c>
+      <c r="X48" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>401</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>420</v>
+      </c>
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s">
+        <v>422</v>
+      </c>
+      <c r="L50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>424</v>
+      </c>
+      <c r="X50" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J51" t="s">
+        <v>429</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s">
+        <v>431</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O51" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>433</v>
+      </c>
+      <c r="X51" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>437</v>
+      </c>
+      <c r="J52" t="s">
+        <v>429</v>
+      </c>
+      <c r="K52" t="s">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>433</v>
+      </c>
+      <c r="X52" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>442</v>
+      </c>
+      <c r="J53" t="s">
+        <v>429</v>
+      </c>
+      <c r="K53" t="s">
+        <v>443</v>
+      </c>
+      <c r="L53" t="s">
+        <v>444</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>401</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>424</v>
+      </c>
+      <c r="X53" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" t="s">
+        <v>448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>449</v>
+      </c>
+      <c r="L54" t="s">
+        <v>450</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>432</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>432</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>457</v>
+      </c>
+      <c r="X55" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>460</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" t="s">
+        <v>462</v>
+      </c>
+      <c r="K56" t="s">
+        <v>463</v>
+      </c>
+      <c r="L56" t="s">
+        <v>464</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>470</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+      <c r="K58" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" t="s">
+        <v>475</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>476</v>
+      </c>
+      <c r="O58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" t="s">
+        <v>479</v>
+      </c>
+      <c r="K59" t="s">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s">
+        <v>481</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>482</v>
+      </c>
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>490</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>491</v>
+      </c>
+      <c r="J61" t="s">
+        <v>492</v>
+      </c>
+      <c r="K61" t="s">
+        <v>493</v>
+      </c>
+      <c r="L61" t="s">
+        <v>494</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>495</v>
+      </c>
+      <c r="O61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>497</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>498</v>
+      </c>
+      <c r="J62" t="s">
+        <v>499</v>
+      </c>
+      <c r="K62" t="s">
+        <v>500</v>
+      </c>
+      <c r="L62" t="s">
+        <v>501</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>502</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>503</v>
+      </c>
+      <c r="J63" t="s">
+        <v>504</v>
+      </c>
+      <c r="K63" t="s">
+        <v>505</v>
+      </c>
+      <c r="L63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>482</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>508</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+      <c r="J64" t="s">
+        <v>510</v>
+      </c>
+      <c r="K64" t="s">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s">
+        <v>512</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>515</v>
+      </c>
+      <c r="J65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K65" t="s">
+        <v>517</v>
+      </c>
+      <c r="L65" t="s">
+        <v>518</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>482</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>520</v>
+      </c>
+      <c r="J66" t="s">
+        <v>521</v>
+      </c>
+      <c r="K66" t="s">
+        <v>522</v>
+      </c>
+      <c r="L66" t="s">
+        <v>523</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>526</v>
+      </c>
+      <c r="J67" t="s">
+        <v>527</v>
+      </c>
+      <c r="K67" t="s">
+        <v>528</v>
+      </c>
+      <c r="L67" t="s">
+        <v>529</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>530</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>532</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>533</v>
+      </c>
+      <c r="J68" t="s">
+        <v>534</v>
+      </c>
+      <c r="K68" t="s">
+        <v>535</v>
+      </c>
+      <c r="L68" t="s">
+        <v>536</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36995</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>539</v>
+      </c>
+      <c r="J69" t="s">
+        <v>540</v>
+      </c>
+      <c r="K69" t="s">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s">
+        <v>542</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>543</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
